--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2024\content\about\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2025\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A2882D-E967-4F68-B8AD-AA660298BF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280F03E8-CD98-4231-8B85-AB027D1FD0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="176">
   <si>
     <t>Row</t>
   </si>
@@ -540,6 +540,30 @@
   </si>
   <si>
     <t>Personal website graded</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>2024 schedule</t>
   </si>
 </sst>
 </file>
@@ -695,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -823,6 +847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -833,6 +858,27 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -881,13 +927,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -916,7 +955,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -945,83 +1005,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1098,6 +1081,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1134,6 +1152,13 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1495,19 +1520,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF092B6-1F8C-4FD2-8E57-195959BA7874}">
-  <dimension ref="A1:N209"/>
+  <dimension ref="A1:R226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="G199" sqref="G199"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="46.81640625" style="42" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" style="42" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1565,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1555,7 +1581,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1581,7 +1607,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1607,7 +1633,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1633,7 +1659,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1659,7 +1685,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1685,7 +1711,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1709,7 +1735,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1735,7 +1761,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1759,7 +1785,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1782,8 +1808,11 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1807,7 +1836,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1830,7 +1859,7 @@
       <c r="H13" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="14"/>
@@ -1844,8 +1873,14 @@
         <v>19</v>
       </c>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q13" s="43">
+        <v>45313</v>
+      </c>
+      <c r="R13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1868,7 +1903,7 @@
       <c r="H14" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="3"/>
@@ -1884,8 +1919,14 @@
         <v>Mon</v>
       </c>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q14" s="43">
+        <v>45313</v>
+      </c>
+      <c r="R14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1908,7 +1949,7 @@
       <c r="H15" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="3"/>
@@ -1924,8 +1965,14 @@
         <v>Mon</v>
       </c>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="Q15" s="43">
+        <v>45313</v>
+      </c>
+      <c r="R15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14.1</v>
       </c>
@@ -1948,7 +1995,7 @@
       <c r="H16" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="3"/>
@@ -1964,8 +2011,14 @@
         <v>Tue</v>
       </c>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q16" s="43">
+        <v>45314</v>
+      </c>
+      <c r="R16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14.2</v>
       </c>
@@ -1994,8 +2047,12 @@
         <v>Sat</v>
       </c>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q17" s="43"/>
+      <c r="R17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>14.3</v>
       </c>
@@ -2024,8 +2081,12 @@
         <v>Sat</v>
       </c>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q18" s="43"/>
+      <c r="R18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2060,8 +2121,14 @@
         <v>Mon</v>
       </c>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q19" s="43">
+        <v>45313</v>
+      </c>
+      <c r="R19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2089,8 +2156,12 @@
         <v>Sat</v>
       </c>
       <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q20" s="43"/>
+      <c r="R20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2113,7 +2184,7 @@
       <c r="H21" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="30" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="3"/>
@@ -2129,8 +2200,14 @@
         <v>Wed</v>
       </c>
       <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q21" s="43">
+        <v>45315</v>
+      </c>
+      <c r="R21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -2165,8 +2242,14 @@
         <v>Wed</v>
       </c>
       <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q22" s="43">
+        <v>45315</v>
+      </c>
+      <c r="R22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>17.2</v>
       </c>
@@ -2189,7 +2272,7 @@
       <c r="H23" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="30" t="s">
         <v>27</v>
       </c>
       <c r="J23" s="3"/>
@@ -2205,8 +2288,14 @@
         <v>Wed</v>
       </c>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q23" s="43">
+        <v>45315</v>
+      </c>
+      <c r="R23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -2227,7 +2316,7 @@
         <v>30</v>
       </c>
       <c r="H24" s="18"/>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="30" t="s">
         <v>31</v>
       </c>
       <c r="J24" s="3"/>
@@ -2243,8 +2332,14 @@
         <v>Wed</v>
       </c>
       <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q24" s="43">
+        <v>45315</v>
+      </c>
+      <c r="R24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>19.100000000000001</v>
       </c>
@@ -2279,8 +2374,14 @@
         <v>Wed</v>
       </c>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q25" s="43">
+        <v>45315</v>
+      </c>
+      <c r="R25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -2301,8 +2402,9 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q26" s="43"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2328,8 +2430,12 @@
         <v>Sat</v>
       </c>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q27" s="43"/>
+      <c r="R27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2359,8 +2465,12 @@
         <v>Sat</v>
       </c>
       <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q28" s="43"/>
+      <c r="R28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2390,8 +2500,12 @@
         <v>Sat</v>
       </c>
       <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q29" s="43"/>
+      <c r="R29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2426,8 +2540,14 @@
         <v>Mon</v>
       </c>
       <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q30" s="43">
+        <v>45320</v>
+      </c>
+      <c r="R30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>26.5</v>
       </c>
@@ -2450,7 +2570,7 @@
       <c r="H31" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="30" t="s">
         <v>27</v>
       </c>
       <c r="J31" s="3"/>
@@ -2466,8 +2586,14 @@
         <v>Mon</v>
       </c>
       <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q31" s="43">
+        <v>45320</v>
+      </c>
+      <c r="R31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -2502,8 +2628,14 @@
         <v>Mon</v>
       </c>
       <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q32" s="43">
+        <v>45320</v>
+      </c>
+      <c r="R32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>27.1</v>
       </c>
@@ -2526,7 +2658,7 @@
       <c r="H33" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="30" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="3"/>
@@ -2542,8 +2674,14 @@
         <v>Mon</v>
       </c>
       <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q33" s="43">
+        <v>45320</v>
+      </c>
+      <c r="R33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -2578,8 +2716,14 @@
         <v>Mon</v>
       </c>
       <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q34" s="43">
+        <v>45320</v>
+      </c>
+      <c r="R34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>30</v>
       </c>
@@ -2609,8 +2753,12 @@
         <v>Sat</v>
       </c>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q35" s="43"/>
+      <c r="R35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -2633,7 +2781,7 @@
       <c r="H36" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="30" t="s">
         <v>40</v>
       </c>
       <c r="J36" s="3"/>
@@ -2649,8 +2797,14 @@
         <v>Wed</v>
       </c>
       <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q36" s="43">
+        <v>45322</v>
+      </c>
+      <c r="R36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>31.5</v>
       </c>
@@ -2685,8 +2839,14 @@
         <v>Wed</v>
       </c>
       <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q37" s="43">
+        <v>45322</v>
+      </c>
+      <c r="R37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -2723,8 +2883,14 @@
         <v>Wed</v>
       </c>
       <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q38" s="43">
+        <v>45322</v>
+      </c>
+      <c r="R38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -2759,8 +2925,14 @@
         <v>Sun</v>
       </c>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q39" s="43">
+        <v>45326</v>
+      </c>
+      <c r="R39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -2786,8 +2958,12 @@
         <v>Sat</v>
       </c>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q40" s="43"/>
+      <c r="R40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -2822,8 +2998,14 @@
         <v>Wed</v>
       </c>
       <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q41" s="43">
+        <v>45315</v>
+      </c>
+      <c r="R41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -2858,8 +3040,14 @@
         <v>Fri</v>
       </c>
       <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q42" s="43">
+        <v>45324</v>
+      </c>
+      <c r="R42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -2894,8 +3082,14 @@
         <v>Fri</v>
       </c>
       <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q43" s="43">
+        <v>45324</v>
+      </c>
+      <c r="R43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -2930,8 +3124,14 @@
         <v>Fri</v>
       </c>
       <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q44" s="43">
+        <v>45324</v>
+      </c>
+      <c r="R44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -2957,8 +3157,12 @@
         <v>Sat</v>
       </c>
       <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q45" s="43"/>
+      <c r="R45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>41</v>
       </c>
@@ -2986,8 +3190,12 @@
         <v>Sat</v>
       </c>
       <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q46" s="43"/>
+      <c r="R46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>42</v>
       </c>
@@ -3017,8 +3225,12 @@
         <v>Sat</v>
       </c>
       <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q47" s="43"/>
+      <c r="R47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43</v>
       </c>
@@ -3048,8 +3260,12 @@
         <v>Sat</v>
       </c>
       <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q48" s="43"/>
+      <c r="R48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44</v>
       </c>
@@ -3079,8 +3295,12 @@
         <v>Sat</v>
       </c>
       <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q49" s="43"/>
+      <c r="R49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45</v>
       </c>
@@ -3110,8 +3330,12 @@
         <v>Sat</v>
       </c>
       <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q50" s="43"/>
+      <c r="R50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>46</v>
       </c>
@@ -3141,8 +3365,12 @@
         <v>Sat</v>
       </c>
       <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q51" s="43"/>
+      <c r="R51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>47</v>
       </c>
@@ -3172,8 +3400,12 @@
         <v>Sat</v>
       </c>
       <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q52" s="43"/>
+      <c r="R52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>48</v>
       </c>
@@ -3201,8 +3433,12 @@
         <v>Sat</v>
       </c>
       <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q53" s="43"/>
+      <c r="R53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>49</v>
       </c>
@@ -3232,8 +3468,12 @@
         <v>Sat</v>
       </c>
       <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q54" s="43"/>
+      <c r="R54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>50</v>
       </c>
@@ -3261,8 +3501,12 @@
         <v>Sat</v>
       </c>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q55" s="43"/>
+      <c r="R55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -3285,8 +3529,9 @@
       <c r="L56" s="16"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q56" s="43"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -3314,8 +3559,12 @@
         <v>Sat</v>
       </c>
       <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q57" s="43"/>
+      <c r="R57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -3350,8 +3599,14 @@
         <v>Sun</v>
       </c>
       <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q58" s="43">
+        <v>45326</v>
+      </c>
+      <c r="R58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -3386,8 +3641,14 @@
         <v>Mon</v>
       </c>
       <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q59" s="43">
+        <v>45327</v>
+      </c>
+      <c r="R59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -3422,8 +3683,14 @@
         <v>Mon</v>
       </c>
       <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q60" s="43">
+        <v>45327</v>
+      </c>
+      <c r="R60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -3458,8 +3725,14 @@
         <v>Mon</v>
       </c>
       <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q61" s="43">
+        <v>45327</v>
+      </c>
+      <c r="R61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -3494,8 +3767,14 @@
         <v>Mon</v>
       </c>
       <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q62" s="43">
+        <v>45327</v>
+      </c>
+      <c r="R62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -3530,8 +3809,14 @@
         <v>Mon</v>
       </c>
       <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q63" s="43">
+        <v>45327</v>
+      </c>
+      <c r="R63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -3559,8 +3844,12 @@
         <v>Sat</v>
       </c>
       <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q64" s="43"/>
+      <c r="R64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -3586,8 +3875,12 @@
         <v>Sat</v>
       </c>
       <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q65" s="43"/>
+      <c r="R65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -3610,7 +3903,7 @@
       <c r="H66" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="30" t="s">
         <v>27</v>
       </c>
       <c r="J66" s="3"/>
@@ -3626,8 +3919,14 @@
         <v>Wed</v>
       </c>
       <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q66" s="43">
+        <v>45329</v>
+      </c>
+      <c r="R66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -3662,8 +3961,14 @@
         <v>Wed</v>
       </c>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q67" s="43">
+        <v>45329</v>
+      </c>
+      <c r="R67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -3698,8 +4003,14 @@
         <v>Wed</v>
       </c>
       <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q68" s="43">
+        <v>45329</v>
+      </c>
+      <c r="R68" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -3734,8 +4045,14 @@
         <v>Wed</v>
       </c>
       <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q69" s="43">
+        <v>45329</v>
+      </c>
+      <c r="R69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -3770,8 +4087,14 @@
         <v>Fri</v>
       </c>
       <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q70" s="43">
+        <v>45331</v>
+      </c>
+      <c r="R70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -3797,8 +4120,12 @@
         <v>Sat</v>
       </c>
       <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q71" s="43"/>
+      <c r="R71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>69</v>
       </c>
@@ -3828,8 +4155,12 @@
         <v>Sat</v>
       </c>
       <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q72" s="43"/>
+      <c r="R72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>70</v>
       </c>
@@ -3859,8 +4190,12 @@
         <v>Sat</v>
       </c>
       <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q73" s="43"/>
+      <c r="R73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3886,8 +4221,12 @@
         <v>Sat</v>
       </c>
       <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q74" s="43"/>
+      <c r="R74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3908,7 +4247,7 @@
         <v>67</v>
       </c>
       <c r="H75" s="18"/>
-      <c r="I75" s="14" t="s">
+      <c r="I75" s="30" t="s">
         <v>68</v>
       </c>
       <c r="J75" s="3"/>
@@ -3924,8 +4263,14 @@
         <v>Mon</v>
       </c>
       <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q75" s="43">
+        <v>45334</v>
+      </c>
+      <c r="R75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3960,8 +4305,14 @@
         <v>Mon</v>
       </c>
       <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q76" s="43">
+        <v>45334</v>
+      </c>
+      <c r="R76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3987,8 +4338,12 @@
         <v>Sat</v>
       </c>
       <c r="N77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q77" s="43"/>
+      <c r="R77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4014,8 +4369,12 @@
         <v>Sat</v>
       </c>
       <c r="N78" s="3"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q78" s="43"/>
+      <c r="R78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77.099999999999994</v>
       </c>
@@ -4050,8 +4409,14 @@
         <v>Sun</v>
       </c>
       <c r="N79" s="3"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q79" s="43">
+        <v>45333</v>
+      </c>
+      <c r="R79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>77.2</v>
       </c>
@@ -4086,8 +4451,14 @@
         <v>Mon</v>
       </c>
       <c r="N80" s="3"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q80" s="43">
+        <v>45334</v>
+      </c>
+      <c r="R80" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>77.3</v>
       </c>
@@ -4122,8 +4493,14 @@
         <v>Mon</v>
       </c>
       <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q81" s="43">
+        <v>45334</v>
+      </c>
+      <c r="R81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -4158,8 +4535,14 @@
         <v>Wed</v>
       </c>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q82" s="43">
+        <v>45336</v>
+      </c>
+      <c r="R82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -4194,8 +4577,14 @@
         <v>Wed</v>
       </c>
       <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q83" s="43">
+        <v>45336</v>
+      </c>
+      <c r="R83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -4230,8 +4619,14 @@
         <v>Thu</v>
       </c>
       <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q84" s="43">
+        <v>45337</v>
+      </c>
+      <c r="R84" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -4266,8 +4661,14 @@
         <v>Fri</v>
       </c>
       <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q85" s="43">
+        <v>45338</v>
+      </c>
+      <c r="R85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -4302,8 +4703,14 @@
         <v>Sun</v>
       </c>
       <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q86" s="43">
+        <v>45340</v>
+      </c>
+      <c r="R86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -4329,8 +4736,12 @@
         <v>Sat</v>
       </c>
       <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q87" s="43"/>
+      <c r="R87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -4360,8 +4771,12 @@
         <v>Sat</v>
       </c>
       <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q88" s="43"/>
+      <c r="R88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -4391,8 +4806,12 @@
         <v>Sat</v>
       </c>
       <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q89" s="43"/>
+      <c r="R89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -4427,8 +4846,14 @@
         <v>Mon</v>
       </c>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q90" s="43">
+        <v>45341</v>
+      </c>
+      <c r="R90" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -4463,8 +4888,14 @@
         <v>Mon</v>
       </c>
       <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q91" s="43">
+        <v>45341</v>
+      </c>
+      <c r="R91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -4490,8 +4921,12 @@
         <v>Sat</v>
       </c>
       <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q92" s="43"/>
+      <c r="R92" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -4526,8 +4961,14 @@
         <v>Mon</v>
       </c>
       <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q93" s="43">
+        <v>45341</v>
+      </c>
+      <c r="R93" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -4562,8 +5003,14 @@
         <v>Mon</v>
       </c>
       <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q94" s="43">
+        <v>45341</v>
+      </c>
+      <c r="R94" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -4589,8 +5036,12 @@
         <v>Sat</v>
       </c>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q95" s="43"/>
+      <c r="R95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -4616,8 +5067,12 @@
         <v>Sat</v>
       </c>
       <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q96" s="43"/>
+      <c r="R96" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -4652,8 +5107,14 @@
         <v>Wed</v>
       </c>
       <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q97" s="43">
+        <v>45343</v>
+      </c>
+      <c r="R97" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -4688,8 +5149,14 @@
         <v>Wed</v>
       </c>
       <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q98" s="43">
+        <v>45343</v>
+      </c>
+      <c r="R98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -4724,8 +5191,14 @@
         <v>Fri</v>
       </c>
       <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q99" s="43">
+        <v>45345</v>
+      </c>
+      <c r="R99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>97</v>
       </c>
@@ -4751,8 +5224,12 @@
         <v>Sat</v>
       </c>
       <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q100" s="43"/>
+      <c r="R100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>98</v>
       </c>
@@ -4778,8 +5255,12 @@
         <v>Sat</v>
       </c>
       <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q101" s="43"/>
+      <c r="R101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>99</v>
       </c>
@@ -4807,8 +5288,12 @@
         <v>Sat</v>
       </c>
       <c r="N102" s="3"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q102" s="43"/>
+      <c r="R102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>100</v>
       </c>
@@ -4838,8 +5323,12 @@
         <v>Sat</v>
       </c>
       <c r="N103" s="3"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q103" s="43"/>
+      <c r="R103" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>101</v>
       </c>
@@ -4869,8 +5358,12 @@
         <v>Sat</v>
       </c>
       <c r="N104" s="3"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q104" s="43"/>
+      <c r="R104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>102</v>
       </c>
@@ -4900,8 +5393,12 @@
         <v>Sat</v>
       </c>
       <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q105" s="43"/>
+      <c r="R105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>103</v>
       </c>
@@ -4931,8 +5428,12 @@
         <v>Sat</v>
       </c>
       <c r="N106" s="3"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q106" s="43"/>
+      <c r="R106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -4960,8 +5461,12 @@
         <v>Sat</v>
       </c>
       <c r="N107" s="3"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q107" s="43"/>
+      <c r="R107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>105</v>
       </c>
@@ -4991,8 +5496,12 @@
         <v>Sat</v>
       </c>
       <c r="N108" s="3"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q108" s="43"/>
+      <c r="R108" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5020,8 +5529,12 @@
         <v>Sat</v>
       </c>
       <c r="N109" s="3"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q109" s="43"/>
+      <c r="R109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5049,8 +5562,12 @@
         <v>Sat</v>
       </c>
       <c r="N110" s="3"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q110" s="43"/>
+      <c r="R110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5078,8 +5595,12 @@
         <v>Sat</v>
       </c>
       <c r="N111" s="3"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q111" s="43"/>
+      <c r="R111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -5114,8 +5635,14 @@
         <v>Mon</v>
       </c>
       <c r="N112" s="3"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q112" s="43">
+        <v>45348</v>
+      </c>
+      <c r="R112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -5141,8 +5668,12 @@
         <v>Sat</v>
       </c>
       <c r="N113" s="3"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q113" s="43"/>
+      <c r="R113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -5177,8 +5708,14 @@
         <v>Mon</v>
       </c>
       <c r="N114" s="3"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q114" s="43">
+        <v>45348</v>
+      </c>
+      <c r="R114" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -5213,8 +5750,14 @@
         <v>Mon</v>
       </c>
       <c r="N115" s="3"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q115" s="43">
+        <v>45348</v>
+      </c>
+      <c r="R115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>117</v>
       </c>
@@ -5249,8 +5792,14 @@
         <v>Wed</v>
       </c>
       <c r="N116" s="3"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q116" s="43">
+        <v>45350</v>
+      </c>
+      <c r="R116" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>118</v>
       </c>
@@ -5285,8 +5834,14 @@
         <v>Wed</v>
       </c>
       <c r="N117" s="3"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q117" s="43">
+        <v>45350</v>
+      </c>
+      <c r="R117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>118.05</v>
       </c>
@@ -5321,8 +5876,14 @@
         <v>Mon</v>
       </c>
       <c r="N118" s="3"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q118" s="43">
+        <v>45348</v>
+      </c>
+      <c r="R118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118.06</v>
       </c>
@@ -5357,8 +5918,14 @@
         <v>Mon</v>
       </c>
       <c r="N119" s="3"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q119" s="43">
+        <v>45348</v>
+      </c>
+      <c r="R119" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118.1</v>
       </c>
@@ -5393,8 +5960,14 @@
         <v>Fri</v>
       </c>
       <c r="N120" s="3"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q120" s="43">
+        <v>45352</v>
+      </c>
+      <c r="R120" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5420,8 +5993,12 @@
         <v>Sat</v>
       </c>
       <c r="N121" s="3"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q121" s="43"/>
+      <c r="R121" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5447,8 +6024,12 @@
         <v>Sat</v>
       </c>
       <c r="N122" s="3"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q122" s="43"/>
+      <c r="R122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5476,8 +6057,12 @@
         <v>Sat</v>
       </c>
       <c r="N123" s="3"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q123" s="43"/>
+      <c r="R123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5505,8 +6090,12 @@
         <v>Sat</v>
       </c>
       <c r="N124" s="3"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q124" s="43"/>
+      <c r="R124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5541,8 +6130,14 @@
         <v>Mon</v>
       </c>
       <c r="N125" s="3"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q125" s="43">
+        <v>45355</v>
+      </c>
+      <c r="R125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5577,8 +6172,14 @@
         <v>Mon</v>
       </c>
       <c r="N126" s="3"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q126" s="43">
+        <v>45355</v>
+      </c>
+      <c r="R126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5613,8 +6214,14 @@
         <v>Wed</v>
       </c>
       <c r="N127" s="3"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q127" s="43">
+        <v>45357</v>
+      </c>
+      <c r="R127" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5635,7 +6242,7 @@
         <v>99</v>
       </c>
       <c r="H128" s="18"/>
-      <c r="I128" s="14" t="s">
+      <c r="I128" s="30" t="s">
         <v>100</v>
       </c>
       <c r="J128" s="3"/>
@@ -5646,8 +6253,14 @@
         <v>Fri</v>
       </c>
       <c r="N128" s="3"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q128" s="43">
+        <v>45359</v>
+      </c>
+      <c r="R128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5675,8 +6288,12 @@
         <v>Sat</v>
       </c>
       <c r="N129" s="3"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q129" s="43"/>
+      <c r="R129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5697,7 +6314,7 @@
         <v>101</v>
       </c>
       <c r="H130" s="18"/>
-      <c r="I130" s="14" t="s">
+      <c r="I130" s="30" t="s">
         <v>100</v>
       </c>
       <c r="J130" s="3"/>
@@ -5710,8 +6327,14 @@
         <v>Mon</v>
       </c>
       <c r="N130" s="3"/>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q130" s="43">
+        <v>45362</v>
+      </c>
+      <c r="R130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5743,8 +6366,14 @@
         <v>Mon</v>
       </c>
       <c r="N131" s="3"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q131" s="43">
+        <v>45362</v>
+      </c>
+      <c r="R131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5765,7 +6394,7 @@
         <v>101</v>
       </c>
       <c r="H132" s="18"/>
-      <c r="I132" s="14" t="s">
+      <c r="I132" s="30" t="s">
         <v>100</v>
       </c>
       <c r="J132" s="3"/>
@@ -5778,8 +6407,14 @@
         <v>Wed</v>
       </c>
       <c r="N132" s="3"/>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q132" s="43">
+        <v>45364</v>
+      </c>
+      <c r="R132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5807,8 +6442,12 @@
         <v>Sat</v>
       </c>
       <c r="N133" s="3"/>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q133" s="43"/>
+      <c r="R133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5838,8 +6477,12 @@
         <v>Sat</v>
       </c>
       <c r="N134" s="3"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q134" s="43"/>
+      <c r="R134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5869,8 +6512,12 @@
         <v>Sat</v>
       </c>
       <c r="N135" s="3"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q135" s="43"/>
+      <c r="R135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5900,8 +6547,12 @@
         <v>Sat</v>
       </c>
       <c r="N136" s="3"/>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q136" s="43"/>
+      <c r="R136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5931,8 +6582,12 @@
         <v>Sat</v>
       </c>
       <c r="N137" s="3"/>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q137" s="43"/>
+      <c r="R137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5962,8 +6617,12 @@
         <v>Sat</v>
       </c>
       <c r="N138" s="3"/>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q138" s="43"/>
+      <c r="R138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5993,8 +6652,12 @@
         <v>Sat</v>
       </c>
       <c r="N139" s="3"/>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q139" s="43"/>
+      <c r="R139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6022,8 +6685,12 @@
         <v>Sat</v>
       </c>
       <c r="N140" s="3"/>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q140" s="43"/>
+      <c r="R140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6044,7 +6711,7 @@
       <c r="H141" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="I141" s="14" t="s">
+      <c r="I141" s="30" t="s">
         <v>27</v>
       </c>
       <c r="J141" s="3"/>
@@ -6057,8 +6724,12 @@
         <v>Sat</v>
       </c>
       <c r="N141" s="3"/>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q141" s="43"/>
+      <c r="R141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6088,8 +6759,12 @@
         <v>Sat</v>
       </c>
       <c r="N142" s="3"/>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q142" s="43"/>
+      <c r="R142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6117,8 +6792,12 @@
         <v>Sat</v>
       </c>
       <c r="N143" s="3"/>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q143" s="43"/>
+      <c r="R143" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -6146,8 +6825,12 @@
         <v>Sat</v>
       </c>
       <c r="N144" s="3"/>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q144" s="43"/>
+      <c r="R144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -6175,8 +6858,12 @@
         <v>Sat</v>
       </c>
       <c r="N145" s="3"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q145" s="43"/>
+      <c r="R145" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -6202,8 +6889,12 @@
         <v>Sat</v>
       </c>
       <c r="N146" s="3"/>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q146" s="43"/>
+      <c r="R146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -6238,8 +6929,14 @@
         <v>Mon</v>
       </c>
       <c r="N147" s="3"/>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q147" s="43">
+        <v>45369</v>
+      </c>
+      <c r="R147" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -6274,8 +6971,14 @@
         <v>Mon</v>
       </c>
       <c r="N148" s="3"/>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q148" s="43">
+        <v>45369</v>
+      </c>
+      <c r="R148" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -6310,8 +7013,14 @@
         <v>Wed</v>
       </c>
       <c r="N149" s="3"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q149" s="43">
+        <v>45371</v>
+      </c>
+      <c r="R149" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -6346,8 +7055,14 @@
         <v>Wed</v>
       </c>
       <c r="N150" s="3"/>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q150" s="43">
+        <v>45371</v>
+      </c>
+      <c r="R150" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -6382,8 +7097,14 @@
         <v>Wed</v>
       </c>
       <c r="N151" s="3"/>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q151" s="43">
+        <v>45371</v>
+      </c>
+      <c r="R151" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -6418,8 +7139,14 @@
         <v>Fri</v>
       </c>
       <c r="N152" s="3"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q152" s="43">
+        <v>45373</v>
+      </c>
+      <c r="R152" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -6454,8 +7181,14 @@
         <v>Fri</v>
       </c>
       <c r="N153" s="3"/>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q153" s="43">
+        <v>45373</v>
+      </c>
+      <c r="R153" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>156</v>
       </c>
@@ -6481,8 +7214,12 @@
         <v>Sat</v>
       </c>
       <c r="N154" s="3"/>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q154" s="43"/>
+      <c r="R154" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>157</v>
       </c>
@@ -6510,8 +7247,12 @@
         <v>Sat</v>
       </c>
       <c r="N155" s="3"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q155" s="43"/>
+      <c r="R155" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>158</v>
       </c>
@@ -6539,8 +7280,12 @@
         <v>Sat</v>
       </c>
       <c r="N156" s="3"/>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q156" s="43"/>
+      <c r="R156" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>158.19999999999999</v>
       </c>
@@ -6575,8 +7320,14 @@
         <v>Sun</v>
       </c>
       <c r="N157" s="3"/>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q157" s="43">
+        <v>45375</v>
+      </c>
+      <c r="R157" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>159</v>
       </c>
@@ -6611,8 +7362,14 @@
         <v>Mon</v>
       </c>
       <c r="N158" s="3"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q158" s="43">
+        <v>45376</v>
+      </c>
+      <c r="R158" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>160</v>
       </c>
@@ -6647,8 +7404,14 @@
         <v>Mon</v>
       </c>
       <c r="N159" s="3"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q159" s="43">
+        <v>45376</v>
+      </c>
+      <c r="R159" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>160.1</v>
       </c>
@@ -6683,8 +7446,14 @@
         <v>Tue</v>
       </c>
       <c r="N160" s="3"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q160" s="43">
+        <v>45377</v>
+      </c>
+      <c r="R160" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -6719,8 +7488,14 @@
         <v>Wed</v>
       </c>
       <c r="N161" s="3"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q161" s="43">
+        <v>45378</v>
+      </c>
+      <c r="R161" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>163</v>
       </c>
@@ -6755,8 +7530,14 @@
         <v>Sun</v>
       </c>
       <c r="N162" s="3"/>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q162" s="43">
+        <v>45382</v>
+      </c>
+      <c r="R162" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>164</v>
       </c>
@@ -6791,8 +7572,14 @@
         <v>Sun</v>
       </c>
       <c r="N163" s="3"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q163" s="43">
+        <v>45382</v>
+      </c>
+      <c r="R163" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>166</v>
       </c>
@@ -6818,8 +7605,12 @@
         <v>Sat</v>
       </c>
       <c r="N164" s="3"/>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q164" s="43"/>
+      <c r="R164" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>167</v>
       </c>
@@ -6847,8 +7638,12 @@
         <v>Sat</v>
       </c>
       <c r="N165" s="3"/>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q165" s="43"/>
+      <c r="R165" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>168</v>
       </c>
@@ -6876,8 +7671,12 @@
         <v>Sat</v>
       </c>
       <c r="N166" s="3"/>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q166" s="43"/>
+      <c r="R166" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>169</v>
       </c>
@@ -6912,8 +7711,14 @@
         <v>Mon</v>
       </c>
       <c r="N167" s="3"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q167" s="43">
+        <v>45383</v>
+      </c>
+      <c r="R167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>170</v>
       </c>
@@ -6948,8 +7753,14 @@
         <v>Wed</v>
       </c>
       <c r="N168" s="3"/>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q168" s="43">
+        <v>45385</v>
+      </c>
+      <c r="R168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>171</v>
       </c>
@@ -6984,8 +7795,14 @@
         <v>Wed</v>
       </c>
       <c r="N169" s="3"/>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q169" s="43">
+        <v>45385</v>
+      </c>
+      <c r="R169" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>171.5</v>
       </c>
@@ -7020,8 +7837,14 @@
         <v>Wed</v>
       </c>
       <c r="N170" s="3"/>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q170" s="43">
+        <v>45385</v>
+      </c>
+      <c r="R170" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>172</v>
       </c>
@@ -7049,8 +7872,12 @@
         <v>Sat</v>
       </c>
       <c r="N171" s="3"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q171" s="43"/>
+      <c r="R171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>172.1</v>
       </c>
@@ -7073,8 +7900,9 @@
       <c r="L172" s="16"/>
       <c r="M172" s="3"/>
       <c r="N172" s="3"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q172" s="43"/>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172.2</v>
       </c>
@@ -7109,8 +7937,14 @@
         <v>Mon</v>
       </c>
       <c r="N173" s="3"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q173" s="43">
+        <v>45390</v>
+      </c>
+      <c r="R173" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -7145,8 +7979,14 @@
         <v>Mon</v>
       </c>
       <c r="N174" s="3"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q174" s="43">
+        <v>45390</v>
+      </c>
+      <c r="R174" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173.3</v>
       </c>
@@ -7181,8 +8021,14 @@
         <v>Wed</v>
       </c>
       <c r="N175" s="3"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q175" s="43">
+        <v>45392</v>
+      </c>
+      <c r="R175" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7217,8 +8063,14 @@
         <v>Wed</v>
       </c>
       <c r="N176" s="3"/>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q176" s="43">
+        <v>45392</v>
+      </c>
+      <c r="R176" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7244,8 +8096,12 @@
         <v>Sat</v>
       </c>
       <c r="N177" s="3"/>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q177" s="43"/>
+      <c r="R177" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>175.5</v>
       </c>
@@ -7280,8 +8136,14 @@
         <v>Fri</v>
       </c>
       <c r="N178" s="3"/>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q178" s="43">
+        <v>45394</v>
+      </c>
+      <c r="R178" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>176</v>
       </c>
@@ -7302,7 +8164,7 @@
         <v>133</v>
       </c>
       <c r="H179" s="18"/>
-      <c r="I179" s="14" t="s">
+      <c r="I179" s="30" t="s">
         <v>100</v>
       </c>
       <c r="J179" s="3"/>
@@ -7318,8 +8180,14 @@
         <v>Fri</v>
       </c>
       <c r="N179" s="3"/>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q179" s="43">
+        <v>45394</v>
+      </c>
+      <c r="R179" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>177</v>
       </c>
@@ -7347,8 +8215,12 @@
         <v>Sat</v>
       </c>
       <c r="N180" s="3"/>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q180" s="43"/>
+      <c r="R180" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>178</v>
       </c>
@@ -7376,8 +8248,12 @@
         <v>Sat</v>
       </c>
       <c r="N181" s="3"/>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q181" s="43"/>
+      <c r="R181" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>179</v>
       </c>
@@ -7412,8 +8288,14 @@
         <v>Mon</v>
       </c>
       <c r="N182" s="3"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q182" s="43">
+        <v>45397</v>
+      </c>
+      <c r="R182" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>179.5</v>
       </c>
@@ -7448,8 +8330,14 @@
         <v>Mon</v>
       </c>
       <c r="N183" s="3"/>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q183" s="43">
+        <v>45397</v>
+      </c>
+      <c r="R183" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>180</v>
       </c>
@@ -7484,8 +8372,14 @@
         <v>Mon</v>
       </c>
       <c r="N184" s="3"/>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q184" s="43">
+        <v>45397</v>
+      </c>
+      <c r="R184" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>180.5</v>
       </c>
@@ -7520,8 +8414,14 @@
         <v>Wed</v>
       </c>
       <c r="N185" s="3"/>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q185" s="43">
+        <v>45399</v>
+      </c>
+      <c r="R185" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>182</v>
       </c>
@@ -7556,8 +8456,14 @@
         <v>Wed</v>
       </c>
       <c r="N186" s="3"/>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q186" s="43">
+        <v>45399</v>
+      </c>
+      <c r="R186" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>182.5</v>
       </c>
@@ -7592,8 +8498,14 @@
         <v>Fri</v>
       </c>
       <c r="N187" s="3"/>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q187" s="43">
+        <v>45401</v>
+      </c>
+      <c r="R187" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>185</v>
       </c>
@@ -7621,8 +8533,12 @@
         <v>Sat</v>
       </c>
       <c r="N188" s="3"/>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q188" s="43"/>
+      <c r="R188" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>186</v>
       </c>
@@ -7650,8 +8566,12 @@
         <v>Sat</v>
       </c>
       <c r="N189" s="3"/>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q189" s="43"/>
+      <c r="R189" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>187</v>
       </c>
@@ -7686,8 +8606,14 @@
         <v>Sun</v>
       </c>
       <c r="N190" s="3"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q190" s="43">
+        <v>45403</v>
+      </c>
+      <c r="R190" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>188</v>
       </c>
@@ -7722,8 +8648,14 @@
         <v>Sun</v>
       </c>
       <c r="N191" s="3"/>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q191" s="43">
+        <v>45403</v>
+      </c>
+      <c r="R191" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>189</v>
       </c>
@@ -7758,8 +8690,14 @@
         <v>Sun</v>
       </c>
       <c r="N192" s="3"/>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q192" s="43">
+        <v>45403</v>
+      </c>
+      <c r="R192" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>190</v>
       </c>
@@ -7794,8 +8732,14 @@
         <v>Mon</v>
       </c>
       <c r="N193" s="3"/>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q193" s="43">
+        <v>45404</v>
+      </c>
+      <c r="R193" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>191</v>
       </c>
@@ -7821,8 +8765,12 @@
         <v>Sat</v>
       </c>
       <c r="N194" s="3"/>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q194" s="43"/>
+      <c r="R194" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>192</v>
       </c>
@@ -7857,8 +8805,14 @@
         <v>Tue</v>
       </c>
       <c r="N195" s="3"/>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q195" s="43">
+        <v>45405</v>
+      </c>
+      <c r="R195" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -7893,8 +8847,14 @@
         <v>Wed</v>
       </c>
       <c r="N196" s="3"/>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q196" s="43">
+        <v>45406</v>
+      </c>
+      <c r="R196" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -7922,8 +8882,12 @@
         <v>Sat</v>
       </c>
       <c r="N197" s="3"/>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q197" s="43"/>
+      <c r="R197" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>195.5</v>
       </c>
@@ -7946,8 +8910,9 @@
       <c r="L198" s="16"/>
       <c r="M198" s="3"/>
       <c r="N198" s="3"/>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q198" s="43"/>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>196</v>
       </c>
@@ -7982,8 +8947,14 @@
         <v>Mon</v>
       </c>
       <c r="N199" s="3"/>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q199" s="43">
+        <v>45411</v>
+      </c>
+      <c r="R199" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8018,8 +8989,14 @@
         <v>Mon</v>
       </c>
       <c r="N200" s="3"/>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q200" s="43">
+        <v>45411</v>
+      </c>
+      <c r="R200" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8056,8 +9033,14 @@
         <v>Wed</v>
       </c>
       <c r="N201" s="3"/>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q201" s="43">
+        <v>45413</v>
+      </c>
+      <c r="R201" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -8092,8 +9075,14 @@
         <v>Wed</v>
       </c>
       <c r="N202" s="3"/>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q202" s="43">
+        <v>45413</v>
+      </c>
+      <c r="R202" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8128,8 +9117,14 @@
         <v>Wed</v>
       </c>
       <c r="N203" s="3"/>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q203" s="43">
+        <v>45413</v>
+      </c>
+      <c r="R203" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -8164,8 +9159,14 @@
         <v>Fri</v>
       </c>
       <c r="N204" s="3"/>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q204" s="43">
+        <v>45415</v>
+      </c>
+      <c r="R204" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>202.1</v>
       </c>
@@ -8200,8 +9201,14 @@
         <v>Sun</v>
       </c>
       <c r="N205" s="3"/>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q205" s="43">
+        <v>45417</v>
+      </c>
+      <c r="R205" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -8222,8 +9229,9 @@
       <c r="L206" s="16"/>
       <c r="M206" s="16"/>
       <c r="N206" s="3"/>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q206" s="43"/>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -8244,7 +9252,7 @@
         <v>153</v>
       </c>
       <c r="H207" s="18"/>
-      <c r="I207" s="14" t="s">
+      <c r="I207" s="30" t="s">
         <v>100</v>
       </c>
       <c r="J207" s="3"/>
@@ -8252,8 +9260,11 @@
       <c r="L207" s="16"/>
       <c r="M207" s="16"/>
       <c r="N207" s="3"/>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q207" s="43">
+        <v>45430</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -8270,8 +9281,9 @@
       <c r="L208" s="16"/>
       <c r="M208" s="16"/>
       <c r="N208" s="3"/>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q208" s="43"/>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -8288,9 +9300,61 @@
       <c r="L209" s="16"/>
       <c r="M209" s="16"/>
       <c r="N209" s="3"/>
+      <c r="Q209" s="43"/>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q210" s="43"/>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q211" s="43"/>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q212" s="43"/>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q213" s="43"/>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q214" s="43"/>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q215" s="43"/>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q216" s="43"/>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q217" s="43"/>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q218" s="43"/>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q219" s="43"/>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q220" s="43"/>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q221" s="43"/>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q222" s="43"/>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q223" s="43"/>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q224" s="43"/>
+    </row>
+    <row r="225" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q225" s="43"/>
+    </row>
+    <row r="226" spans="17:17" x14ac:dyDescent="0.35">
+      <c r="Q226" s="43"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C76 C173:C185 C205 C190:C201">
+  <conditionalFormatting sqref="C3:C76 C173:C185 C190:C201 C205">
     <cfRule type="expression" dxfId="47" priority="1">
       <formula>ISEVEN(C3)</formula>
     </cfRule>
@@ -8307,11 +9371,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78">
-    <cfRule type="expression" dxfId="43" priority="149">
+    <cfRule type="expression" dxfId="43" priority="150">
+      <formula>ISODD(C78)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="149">
       <formula>ISEVEN(C78)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="150">
-      <formula>ISODD(C78)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C81 C117:C119 C153 C169:C172 C186:C187">
@@ -8320,27 +9384,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="40" priority="153">
+    <cfRule type="expression" dxfId="40" priority="154">
+      <formula>ISODD(C80)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="153">
       <formula>ISEVEN(C80)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="154">
-      <formula>ISODD(C80)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="38" priority="147">
+    <cfRule type="expression" dxfId="38" priority="148">
+      <formula>ISODD(C81)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="147">
       <formula>ISEVEN(C81)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="148">
-      <formula>ISODD(C81)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84:C116">
-    <cfRule type="expression" dxfId="36" priority="119">
+    <cfRule type="expression" dxfId="36" priority="120">
+      <formula>ISODD(C84)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="119">
       <formula>ISEVEN(C84)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="120">
-      <formula>ISODD(C84)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:C119 C79:C81 C153 C186:C187 C169:C172">
@@ -8357,19 +9421,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119">
-    <cfRule type="expression" dxfId="31" priority="173">
+    <cfRule type="expression" dxfId="31" priority="174">
+      <formula>ISODD(C119)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="173">
       <formula>ISEVEN(C119)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="174">
-      <formula>ISODD(C119)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148:C157">
-    <cfRule type="expression" dxfId="29" priority="63">
+    <cfRule type="expression" dxfId="29" priority="64">
+      <formula>ISODD(C148)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="63">
       <formula>ISEVEN(C148)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="64">
-      <formula>ISODD(C148)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
@@ -8381,52 +9445,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="expression" dxfId="25" priority="55">
+    <cfRule type="expression" dxfId="25" priority="57">
       <formula>ISEVEN(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="56">
+    <cfRule type="expression" dxfId="24" priority="58">
       <formula>ISODD(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="57">
+    <cfRule type="expression" dxfId="23" priority="55">
       <formula>ISEVEN(C157)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="58">
+    <cfRule type="expression" dxfId="22" priority="56">
       <formula>ISODD(C157)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157:C158">
-    <cfRule type="expression" dxfId="21" priority="45">
+    <cfRule type="expression" dxfId="21" priority="46">
+      <formula>ISODD(C157)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="45">
       <formula>ISEVEN(C157)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="46">
-      <formula>ISODD(C157)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159:C167">
-    <cfRule type="expression" dxfId="19" priority="77">
+    <cfRule type="expression" dxfId="19" priority="78">
+      <formula>ISODD(C159)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="77">
       <formula>ISEVEN(C159)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="78">
-      <formula>ISODD(C159)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="expression" dxfId="17" priority="65">
+    <cfRule type="expression" dxfId="17" priority="69">
       <formula>ISEVEN(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="66">
+    <cfRule type="expression" dxfId="16" priority="70">
       <formula>ISODD(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="67">
+    <cfRule type="expression" dxfId="15" priority="66">
+      <formula>ISODD(C160)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="65">
       <formula>ISEVEN(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="68">
-      <formula>ISODD(C160)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="69">
+    <cfRule type="expression" dxfId="13" priority="67">
       <formula>ISEVEN(C160)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="70">
+    <cfRule type="expression" dxfId="12" priority="68">
       <formula>ISODD(C160)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8439,27 +9503,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>ISODD(C168)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>ISEVEN(C168)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>ISODD(C168)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170">
-    <cfRule type="expression" dxfId="7" priority="59">
+    <cfRule type="expression" dxfId="7" priority="60">
+      <formula>ISODD(C170)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="59">
       <formula>ISEVEN(C170)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="60">
-      <formula>ISODD(C170)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="expression" dxfId="5" priority="43">
+    <cfRule type="expression" dxfId="5" priority="44">
+      <formula>ISODD(C187)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="43">
       <formula>ISEVEN(C187)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="44">
-      <formula>ISODD(C187)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187:C189">

--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2025\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280F03E8-CD98-4231-8B85-AB027D1FD0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9772EB62-F405-4BFB-85E0-D31750165BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -848,6 +848,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1523,7 +1524,7 @@
   <dimension ref="A1:R226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1836,7 +1837,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1853,7 +1854,7 @@
       <c r="F13" s="13">
         <v>45313</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="44" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -1880,7 +1881,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1897,7 +1898,7 @@
       <c r="F14" s="13">
         <v>45313</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="44" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="17" t="s">
@@ -1926,7 +1927,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1943,7 +1944,7 @@
       <c r="F15" s="13">
         <v>45313</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="44" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="17" t="s">
@@ -1972,7 +1973,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14.1</v>
       </c>
@@ -1989,7 +1990,7 @@
       <c r="F16" s="13">
         <v>45314</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="44" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="17" t="s">
@@ -2161,7 +2162,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2178,7 +2179,7 @@
       <c r="F21" s="19">
         <v>45315</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="44" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="17" t="s">
@@ -2249,7 +2250,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>17.2</v>
       </c>
@@ -2266,7 +2267,7 @@
       <c r="F23" s="19">
         <v>45315</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="44" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="17" t="s">
@@ -2547,7 +2548,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>26.5</v>
       </c>
@@ -2564,7 +2565,7 @@
       <c r="F31" s="19">
         <v>45320</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="44" t="s">
         <v>35</v>
       </c>
       <c r="H31" s="17" t="s">
@@ -2635,7 +2636,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>27.1</v>
       </c>
@@ -2652,7 +2653,7 @@
       <c r="F33" s="19">
         <v>45320</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="44" t="s">
         <v>37</v>
       </c>
       <c r="H33" s="17" t="s">
@@ -2758,7 +2759,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="174" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>31</v>
       </c>
@@ -2775,7 +2776,7 @@
       <c r="F36" s="19">
         <v>45322</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="44" t="s">
         <v>39</v>
       </c>
       <c r="H36" s="17" t="s">
@@ -3880,7 +3881,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -3897,7 +3898,7 @@
       <c r="F66" s="13">
         <v>45329</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="44" t="s">
         <v>62</v>
       </c>
       <c r="H66" s="17" t="s">
@@ -6690,7 +6691,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -9543,20 +9544,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1" xr:uid="{BB099E47-7FF5-41CE-AAF7-A77A8CFF3913}"/>
-    <hyperlink ref="G13" r:id="rId2" xr:uid="{3AA9989C-9EEB-4718-A411-408DFFE8A965}"/>
-    <hyperlink ref="G14" r:id="rId3" xr:uid="{1874924A-1AE9-41C0-9173-3489A9096F49}"/>
-    <hyperlink ref="G36" r:id="rId4" display="Chapter 2 (basic syntax) to 14 (modules)" xr:uid="{3255AB21-7541-4BF2-83F3-3E94C5712664}"/>
-    <hyperlink ref="G66" r:id="rId5" xr:uid="{6931D715-50E7-411F-909D-5849DD40C628}"/>
-    <hyperlink ref="G31" r:id="rId6" xr:uid="{4A294440-1502-4A36-9E24-43501A9B4B04}"/>
-    <hyperlink ref="G23" r:id="rId7" xr:uid="{3A343C54-588F-4EE4-A684-BEAC7E066F79}"/>
-    <hyperlink ref="G33" r:id="rId8" xr:uid="{74E0F602-4AD5-4DB2-94D9-EE31C0B1A8CC}"/>
-    <hyperlink ref="G112" r:id="rId9" xr:uid="{C8D7C107-7C07-41CA-A2CD-31DDAFF3FDF8}"/>
-    <hyperlink ref="G16" r:id="rId10" display="Once I accept you into the organization, go to the GitHub discussion board and:" xr:uid="{581D3263-F357-4CC0-8037-85ECE40E0165}"/>
-    <hyperlink ref="E141" r:id="rId11" xr:uid="{07E3D8FE-19F7-46BC-B625-DD8BCFA50F3C}"/>
-    <hyperlink ref="G15" r:id="rId12" xr:uid="{FACE2ED2-97E0-440E-8529-7CC59DFCE43C}"/>
+    <hyperlink ref="G112" r:id="rId1" xr:uid="{C8D7C107-7C07-41CA-A2CD-31DDAFF3FDF8}"/>
+    <hyperlink ref="E141" r:id="rId2" xr:uid="{07E3D8FE-19F7-46BC-B625-DD8BCFA50F3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2025\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54688B2-FE50-4B15-B48A-8440A5FDB518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77187AA-0D31-48FA-A86A-AA6DA47D5A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:L208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2025\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77187AA-0D31-48FA-A86A-AA6DA47D5A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2825D628-7233-44AD-971C-F76C94886FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:L208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2025\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2825D628-7233-44AD-971C-F76C94886FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409B69D3-E2CA-418E-8D60-4C7B476B05F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
+    <workbookView xWindow="-11490" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -1571,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF092B6-1F8C-4FD2-8E57-195959BA7874}">
   <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="M148" sqref="M148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/content/about/Schedule.xlsx
+++ b/content/about/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DonsLaptop\Desktop\GitHub\ledatascifi-2025\content\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409B69D3-E2CA-418E-8D60-4C7B476B05F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF38A6C-DDBD-4438-9C71-AD713767345E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11490" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C4EC7618-C1C5-4BB6-84C2-5B870F390279}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="165">
   <si>
     <t>Row</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>Project websites due</t>
+  </si>
+  <si>
+    <t>https://forms.gle/gjHnf3vfb362MnP66</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,12 +646,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -710,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -808,10 +805,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -827,44 +820,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,7 +851,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -893,6 +865,27 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -941,13 +934,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -976,7 +962,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1005,83 +1012,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1158,6 +1088,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1194,6 +1159,13 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1571,49 +1543,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF092B6-1F8C-4FD2-8E57-195959BA7874}">
   <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="M148" sqref="M148"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="8.7265625" style="34"/>
     <col min="7" max="7" width="57.90625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="44" style="34" customWidth="1"/>
-    <col min="9" max="9" width="22.7265625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="34"/>
+    <col min="8" max="8" width="44" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" customWidth="1"/>
+    <col min="10" max="10" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="58" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" s="49" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="56" t="s">
+      <c r="E1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="50" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1649,7 +1619,7 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="35"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1835,7 +1805,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="9"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="36"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="10"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1857,7 +1827,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="9"/>
       <c r="G12" s="26"/>
-      <c r="H12" s="36"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="10"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1880,10 +1850,10 @@
       <c r="F13" s="12">
         <v>45678</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="35" t="s">
         <v>148</v>
       </c>
       <c r="I13" s="13" t="s">
@@ -1911,10 +1881,10 @@
         <f>$F$13+J14</f>
         <v>45678</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="35" t="s">
         <v>152</v>
       </c>
       <c r="I14" s="13" t="s">
@@ -1947,10 +1917,10 @@
         <f>$F$13+J15</f>
         <v>45678</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="35" t="s">
         <v>157</v>
       </c>
       <c r="I15" s="13" t="s">
@@ -1983,10 +1953,10 @@
         <f>$F$13+J16</f>
         <v>45679</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="35" t="s">
         <v>154</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -2059,7 +2029,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="44">
+      <c r="F19" s="12">
         <f>$F$13+J19</f>
         <v>45678</v>
       </c>
@@ -2115,14 +2085,14 @@
         <v>14</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="45">
+      <c r="F21" s="16">
         <f>$F$13+J21</f>
         <v>45680</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="35" t="s">
         <v>158</v>
       </c>
       <c r="I21" s="13" t="s">
@@ -2151,7 +2121,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="45">
+      <c r="F22" s="16">
         <f>$F$13+J22</f>
         <v>45680</v>
       </c>
@@ -2183,14 +2153,14 @@
         <v>14</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="45">
+      <c r="F23" s="16">
         <f>$F$13+J23</f>
         <v>45680</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="35" t="s">
         <v>159</v>
       </c>
       <c r="I23" s="13" t="s">
@@ -2219,7 +2189,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="45">
+      <c r="F24" s="16">
         <f>$F$13+J24</f>
         <v>45680</v>
       </c>
@@ -2253,7 +2223,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="45">
+      <c r="F25" s="16">
         <f>$F$13+J25</f>
         <v>45680</v>
       </c>
@@ -2283,7 +2253,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="42"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="15"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2303,7 +2273,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="45"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="15"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -2327,7 +2297,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="45"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="15"/>
       <c r="H28" s="3"/>
       <c r="I28" s="10" t="s">
@@ -2353,7 +2323,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="45"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="15"/>
       <c r="H29" s="3"/>
       <c r="I29" s="10" t="s">
@@ -2379,14 +2349,14 @@
         <v>40</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="46">
+      <c r="F30" s="40">
         <f>$F$13+J30</f>
         <v>45685</v>
       </c>
       <c r="G30" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="38"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="10"/>
       <c r="J30" s="3">
         <v>7</v>
@@ -2411,14 +2381,14 @@
         <v>14</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="45">
+      <c r="F31" s="16">
         <f>$F$13+J31</f>
         <v>45685</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="35" t="s">
         <v>161</v>
       </c>
       <c r="I31" s="13" t="s">
@@ -2447,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="45">
+      <c r="F32" s="16">
         <f>$F$13+J32</f>
         <v>45685</v>
       </c>
@@ -2479,14 +2449,14 @@
         <v>14</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="45">
+      <c r="F33" s="16">
         <f>$F$13+J33</f>
         <v>45685</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="35" t="s">
         <v>160</v>
       </c>
       <c r="I33" s="13" t="s">
@@ -2515,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="45">
+      <c r="F34" s="16">
         <f>$F$13+J34</f>
         <v>45685</v>
       </c>
@@ -2547,7 +2517,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="45"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="15"/>
       <c r="H35" s="3"/>
       <c r="I35" s="10" t="s">
@@ -2571,14 +2541,14 @@
         <v>14</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="45">
+      <c r="F36" s="16">
         <f>$F$13+J36</f>
         <v>45687</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="35" t="s">
         <v>150</v>
       </c>
       <c r="I36" s="13" t="s">
@@ -2607,7 +2577,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="45">
+      <c r="F37" s="16">
         <f>$F$13+J37</f>
         <v>45687</v>
       </c>
@@ -2639,7 +2609,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="45">
+      <c r="F38" s="16">
         <f>$F$13+J38</f>
         <v>45687</v>
       </c>
@@ -2671,7 +2641,7 @@
         <v>30</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="47">
+      <c r="F39" s="41">
         <f>$F$13+J39</f>
         <v>45690</v>
       </c>
@@ -2701,7 +2671,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="45"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="15"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -2725,7 +2695,7 @@
         <v>40</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="44">
+      <c r="F41" s="12">
         <f>$F$13+J41</f>
         <v>45680</v>
       </c>
@@ -2757,7 +2727,7 @@
         <v>40</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="44">
+      <c r="F42" s="12">
         <f>$F$13+J42</f>
         <v>45689</v>
       </c>
@@ -2789,7 +2759,7 @@
         <v>40</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="44">
+      <c r="F43" s="12">
         <f>$F$13+J43</f>
         <v>45689</v>
       </c>
@@ -2821,7 +2791,7 @@
         <v>40</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="45">
+      <c r="F44" s="16">
         <f>$F$13+J44</f>
         <v>45689</v>
       </c>
@@ -2851,7 +2821,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="42"/>
+      <c r="F45" s="2"/>
       <c r="G45" s="15"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2875,7 +2845,7 @@
         <v>4</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="48"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="15"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -2901,9 +2871,9 @@
       <c r="E47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="48"/>
+      <c r="F47" s="42"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="35"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3">
         <v>-44228</v>
@@ -2927,7 +2897,7 @@
       <c r="E48" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="42"/>
+      <c r="F48" s="2"/>
       <c r="G48" s="15"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -2953,7 +2923,7 @@
       <c r="E49" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="42"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="15"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2979,7 +2949,7 @@
       <c r="E50" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="42"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="15"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -3005,7 +2975,7 @@
       <c r="E51" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="42"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="15"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -3031,7 +3001,7 @@
       <c r="E52" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="42"/>
+      <c r="F52" s="2"/>
       <c r="G52" s="15"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -3055,7 +3025,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="48"/>
+      <c r="F53" s="42"/>
       <c r="G53" s="15"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -3081,7 +3051,7 @@
       <c r="E54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F54" s="42"/>
+      <c r="F54" s="2"/>
       <c r="G54" s="15"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -3105,7 +3075,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="42"/>
+      <c r="F55" s="2"/>
       <c r="G55" s="15"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -3129,9 +3099,9 @@
         <v>13</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="43"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="26"/>
-      <c r="H56" s="36"/>
+      <c r="H56" s="34"/>
       <c r="I56" s="10"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -3151,7 +3121,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="42"/>
+      <c r="F57" s="2"/>
       <c r="G57" s="15"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -3175,14 +3145,14 @@
         <v>40</v>
       </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="49">
+      <c r="F58" s="43">
         <f>$F$13+J58</f>
         <v>45692</v>
       </c>
       <c r="G58" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H58" s="38"/>
+      <c r="H58" s="36"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3">
         <v>14</v>
@@ -3207,14 +3177,14 @@
         <v>40</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="49">
+      <c r="F59" s="43">
         <f>$F$13+J59</f>
         <v>45692</v>
       </c>
       <c r="G59" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H59" s="38"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3">
         <v>14</v>
@@ -3239,7 +3209,7 @@
         <v>14</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="44">
+      <c r="F60" s="12">
         <f>$F$13+J60</f>
         <v>45692</v>
       </c>
@@ -3271,7 +3241,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="44">
+      <c r="F61" s="12">
         <f>$F$13+J61</f>
         <v>45692</v>
       </c>
@@ -3303,7 +3273,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="45">
+      <c r="F62" s="16">
         <f>$F$13+J62</f>
         <v>45692</v>
       </c>
@@ -3333,7 +3303,7 @@
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="45"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="15"/>
       <c r="H63" s="3"/>
       <c r="I63" s="10" t="s">
@@ -3357,7 +3327,7 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="45"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="15"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -3381,15 +3351,15 @@
         <v>14</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="44">
+      <c r="F65" s="12">
         <f>$F$13+J65</f>
         <v>45694</v>
       </c>
-      <c r="G65" s="33" t="s">
+      <c r="G65" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="H65" s="37" t="s">
-        <v>152</v>
+      <c r="H65" s="35" t="s">
+        <v>164</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>19</v>
@@ -3417,7 +3387,7 @@
         <v>14</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="44">
+      <c r="F66" s="12">
         <f>$F$13+J66</f>
         <v>45694</v>
       </c>
@@ -3449,7 +3419,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="44">
+      <c r="F67" s="12">
         <f>$F$13+J67</f>
         <v>45694</v>
       </c>
@@ -3481,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="45">
+      <c r="F68" s="16">
         <f>$F$13+J68</f>
         <v>45694</v>
       </c>
@@ -3513,7 +3483,7 @@
         <v>30</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="50">
+      <c r="F69" s="44">
         <f>$F$13+J69</f>
         <v>45693</v>
       </c>
@@ -3543,7 +3513,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="45"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="15"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -3567,7 +3537,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="45"/>
+      <c r="F71" s="16"/>
       <c r="G71" s="15"/>
       <c r="H71" s="3"/>
       <c r="I71" s="10" t="s">
@@ -3593,7 +3563,7 @@
         <v>14</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="45"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="15"/>
       <c r="H72" s="3"/>
       <c r="I72" s="10" t="s">
@@ -3617,7 +3587,7 @@
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="45"/>
+      <c r="F73" s="16"/>
       <c r="G73" s="15"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -3641,7 +3611,7 @@
         <v>14</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="44">
+      <c r="F74" s="12">
         <f>$F$13+J74</f>
         <v>45699</v>
       </c>
@@ -3675,7 +3645,7 @@
         <v>13</v>
       </c>
       <c r="E75" s="3"/>
-      <c r="F75" s="45">
+      <c r="F75" s="16">
         <f>$F$13+J75</f>
         <v>45699</v>
       </c>
@@ -3705,7 +3675,7 @@
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="45"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="15"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -3727,7 +3697,7 @@
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="45"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="15"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -3751,8 +3721,8 @@
         <v>30</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="F78" s="47">
-        <f>$F$13+J78</f>
+      <c r="F78" s="41">
+        <f t="shared" ref="F78:F85" si="2">$F$13+J78</f>
         <v>45697</v>
       </c>
       <c r="G78" s="28" t="s">
@@ -3764,7 +3734,7 @@
         <v>19</v>
       </c>
       <c r="K78" s="3" t="str">
-        <f>TEXT(F78,"ddd")</f>
+        <f t="shared" ref="K78:K85" si="3">TEXT(F78,"ddd")</f>
         <v>Sun</v>
       </c>
       <c r="L78" s="3"/>
@@ -3783,20 +3753,20 @@
         <v>40</v>
       </c>
       <c r="E79" s="3"/>
-      <c r="F79" s="49">
-        <f>$F$13+J79</f>
+      <c r="F79" s="43">
+        <f t="shared" si="2"/>
         <v>45699</v>
       </c>
       <c r="G79" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H79" s="38"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3">
         <v>21</v>
       </c>
       <c r="K79" s="3" t="str">
-        <f>TEXT(F79,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Tue</v>
       </c>
       <c r="L79" s="3"/>
@@ -3815,20 +3785,20 @@
         <v>40</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="49">
-        <f>$F$13+J80</f>
+      <c r="F80" s="43">
+        <f t="shared" si="2"/>
         <v>45699</v>
       </c>
       <c r="G80" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H80" s="38"/>
+      <c r="H80" s="36"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3">
         <v>21</v>
       </c>
       <c r="K80" s="3" t="str">
-        <f>TEXT(F80,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Tue</v>
       </c>
       <c r="L80" s="3"/>
@@ -3847,8 +3817,8 @@
         <v>14</v>
       </c>
       <c r="E81" s="3"/>
-      <c r="F81" s="44">
-        <f>$F$13+J81</f>
+      <c r="F81" s="12">
+        <f t="shared" si="2"/>
         <v>45701</v>
       </c>
       <c r="G81" s="15" t="s">
@@ -3860,7 +3830,7 @@
         <v>23</v>
       </c>
       <c r="K81" s="3" t="str">
-        <f>TEXT(F81,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="L81" s="3"/>
@@ -3879,8 +3849,8 @@
         <v>13</v>
       </c>
       <c r="E82" s="3"/>
-      <c r="F82" s="45">
-        <f>$F$13+J82</f>
+      <c r="F82" s="16">
+        <f t="shared" si="2"/>
         <v>45701</v>
       </c>
       <c r="G82" s="15" t="s">
@@ -3892,7 +3862,7 @@
         <v>23</v>
       </c>
       <c r="K82" s="3" t="str">
-        <f>TEXT(F82,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Thu</v>
       </c>
       <c r="L82" s="3"/>
@@ -3911,8 +3881,8 @@
         <v>40</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="44">
-        <f>$F$13+J83</f>
+      <c r="F83" s="12">
+        <f t="shared" si="2"/>
         <v>45702</v>
       </c>
       <c r="G83" s="15" t="s">
@@ -3924,7 +3894,7 @@
         <v>24</v>
       </c>
       <c r="K83" s="3" t="str">
-        <f>TEXT(F83,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Fri</v>
       </c>
       <c r="L83" s="3"/>
@@ -3943,8 +3913,8 @@
         <v>30</v>
       </c>
       <c r="E84" s="3"/>
-      <c r="F84" s="50">
-        <f>$F$13+J84</f>
+      <c r="F84" s="44">
+        <f t="shared" si="2"/>
         <v>45700</v>
       </c>
       <c r="G84" s="28" t="s">
@@ -3956,7 +3926,7 @@
         <v>22</v>
       </c>
       <c r="K84" s="3" t="str">
-        <f>TEXT(F84,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Wed</v>
       </c>
       <c r="L84" s="3"/>
@@ -3975,8 +3945,8 @@
         <v>30</v>
       </c>
       <c r="E85" s="3"/>
-      <c r="F85" s="47">
-        <f>$F$13+J85</f>
+      <c r="F85" s="41">
+        <f t="shared" si="2"/>
         <v>45704</v>
       </c>
       <c r="G85" s="28" t="s">
@@ -3988,7 +3958,7 @@
         <v>26</v>
       </c>
       <c r="K85" s="3" t="str">
-        <f>TEXT(F85,"ddd")</f>
+        <f t="shared" si="3"/>
         <v>Sun</v>
       </c>
       <c r="L85" s="3"/>
@@ -4005,7 +3975,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="45"/>
+      <c r="F86" s="16"/>
       <c r="G86" s="15"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -4029,7 +3999,7 @@
         <v>13</v>
       </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="45"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="15"/>
       <c r="H87" s="3"/>
       <c r="I87" s="10" t="s">
@@ -4055,7 +4025,7 @@
         <v>14</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="45"/>
+      <c r="F88" s="16"/>
       <c r="G88" s="15"/>
       <c r="H88" s="3"/>
       <c r="I88" s="10" t="s">
@@ -4081,14 +4051,14 @@
         <v>40</v>
       </c>
       <c r="E89" s="3"/>
-      <c r="F89" s="46">
+      <c r="F89" s="40">
         <f>$F$13+J89</f>
         <v>45706</v>
       </c>
       <c r="G89" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H89" s="38"/>
+      <c r="H89" s="36"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3">
         <v>28</v>
@@ -4113,14 +4083,14 @@
         <v>40</v>
       </c>
       <c r="E90" s="3"/>
-      <c r="F90" s="46">
+      <c r="F90" s="40">
         <f>$F$13+J90</f>
         <v>45706</v>
       </c>
       <c r="G90" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H90" s="38"/>
+      <c r="H90" s="36"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3">
         <v>28</v>
@@ -4143,7 +4113,7 @@
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="45"/>
+      <c r="F91" s="16"/>
       <c r="G91" s="15"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4167,7 +4137,7 @@
         <v>14</v>
       </c>
       <c r="E92" s="3"/>
-      <c r="F92" s="44">
+      <c r="F92" s="12">
         <f>$F$13+J92</f>
         <v>45706</v>
       </c>
@@ -4199,7 +4169,7 @@
         <v>13</v>
       </c>
       <c r="E93" s="3"/>
-      <c r="F93" s="45">
+      <c r="F93" s="16">
         <f>$F$13+J93</f>
         <v>45706</v>
       </c>
@@ -4229,7 +4199,7 @@
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="45"/>
+      <c r="F94" s="16"/>
       <c r="G94" s="15"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -4251,7 +4221,7 @@
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="45"/>
+      <c r="F95" s="16"/>
       <c r="G95" s="15"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -4275,7 +4245,7 @@
         <v>14</v>
       </c>
       <c r="E96" s="3"/>
-      <c r="F96" s="44">
+      <c r="F96" s="12">
         <f>$F$13+J96</f>
         <v>45708</v>
       </c>
@@ -4307,7 +4277,7 @@
         <v>13</v>
       </c>
       <c r="E97" s="3"/>
-      <c r="F97" s="44">
+      <c r="F97" s="12">
         <f>$F$13+J97</f>
         <v>45708</v>
       </c>
@@ -4339,7 +4309,7 @@
         <v>30</v>
       </c>
       <c r="E98" s="3"/>
-      <c r="F98" s="50">
+      <c r="F98" s="44">
         <f>$F$13+J98</f>
         <v>45707</v>
       </c>
@@ -4369,7 +4339,7 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="45"/>
+      <c r="F99" s="16"/>
       <c r="G99" s="15"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -4391,7 +4361,7 @@
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="45"/>
+      <c r="F100" s="16"/>
       <c r="G100" s="15"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -4415,7 +4385,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="6"/>
-      <c r="F101" s="48"/>
+      <c r="F101" s="42"/>
       <c r="G101" s="15"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -4441,9 +4411,9 @@
       <c r="E102" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F102" s="48"/>
+      <c r="F102" s="42"/>
       <c r="G102" s="25"/>
-      <c r="H102" s="35"/>
+      <c r="H102" s="33"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3">
         <v>-44228</v>
@@ -4467,7 +4437,7 @@
       <c r="E103" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F103" s="48"/>
+      <c r="F103" s="42"/>
       <c r="G103" s="15"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -4493,7 +4463,7 @@
       <c r="E104" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F104" s="48"/>
+      <c r="F104" s="42"/>
       <c r="G104" s="15"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -4519,7 +4489,7 @@
       <c r="E105" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F105" s="48"/>
+      <c r="F105" s="42"/>
       <c r="G105" s="15"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -4543,7 +4513,7 @@
         <v>4</v>
       </c>
       <c r="E106" s="2"/>
-      <c r="F106" s="48"/>
+      <c r="F106" s="42"/>
       <c r="G106" s="15"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -4569,7 +4539,7 @@
       <c r="E107" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F107" s="42"/>
+      <c r="F107" s="2"/>
       <c r="G107" s="15"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -4593,7 +4563,7 @@
         <v>11</v>
       </c>
       <c r="E108" s="2"/>
-      <c r="F108" s="42"/>
+      <c r="F108" s="2"/>
       <c r="G108" s="15"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -4617,7 +4587,7 @@
         <v>13</v>
       </c>
       <c r="E109" s="2"/>
-      <c r="F109" s="42"/>
+      <c r="F109" s="2"/>
       <c r="G109" s="15"/>
       <c r="H109" s="3"/>
       <c r="I109" s="10"/>
@@ -4641,7 +4611,7 @@
         <v>14</v>
       </c>
       <c r="E110" s="2"/>
-      <c r="F110" s="42"/>
+      <c r="F110" s="2"/>
       <c r="G110" s="15"/>
       <c r="H110" s="3"/>
       <c r="I110" s="10"/>
@@ -4665,14 +4635,14 @@
         <v>40</v>
       </c>
       <c r="E111" s="3"/>
-      <c r="F111" s="46">
+      <c r="F111" s="40">
         <f>$F$13+J111</f>
         <v>45713</v>
       </c>
       <c r="G111" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H111" s="39"/>
+      <c r="H111" s="37"/>
       <c r="I111" s="10"/>
       <c r="J111" s="3">
         <v>35</v>
@@ -4695,7 +4665,7 @@
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="51"/>
+      <c r="F112" s="3"/>
       <c r="G112" s="15"/>
       <c r="H112" s="3"/>
       <c r="I112" s="10"/>
@@ -4719,8 +4689,8 @@
         <v>14</v>
       </c>
       <c r="E113" s="3"/>
-      <c r="F113" s="45">
-        <f>$F$13+J113</f>
+      <c r="F113" s="16">
+        <f t="shared" ref="F113:F119" si="4">$F$13+J113</f>
         <v>45713</v>
       </c>
       <c r="G113" s="15" t="s">
@@ -4732,7 +4702,7 @@
         <v>35</v>
       </c>
       <c r="K113" s="3" t="str">
-        <f>TEXT(F113,"ddd")</f>
+        <f t="shared" ref="K113:K119" si="5">TEXT(F113,"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="L113" s="3"/>
@@ -4751,8 +4721,8 @@
         <v>13</v>
       </c>
       <c r="E114" s="3"/>
-      <c r="F114" s="45">
-        <f>$F$13+J114</f>
+      <c r="F114" s="16">
+        <f t="shared" si="4"/>
         <v>45713</v>
       </c>
       <c r="G114" s="15" t="s">
@@ -4764,7 +4734,7 @@
         <v>35</v>
       </c>
       <c r="K114" s="3" t="str">
-        <f>TEXT(F114,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="L114" s="3"/>
@@ -4783,8 +4753,8 @@
         <v>14</v>
       </c>
       <c r="E115" s="3"/>
-      <c r="F115" s="45">
-        <f>$F$13+J115</f>
+      <c r="F115" s="16">
+        <f t="shared" si="4"/>
         <v>45715</v>
       </c>
       <c r="G115" s="15" t="s">
@@ -4796,7 +4766,7 @@
         <v>37</v>
       </c>
       <c r="K115" s="3" t="str">
-        <f>TEXT(F115,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="L115" s="3"/>
@@ -4815,8 +4785,8 @@
         <v>13</v>
       </c>
       <c r="E116" s="3"/>
-      <c r="F116" s="45">
-        <f>$F$13+J116</f>
+      <c r="F116" s="16">
+        <f t="shared" si="4"/>
         <v>45715</v>
       </c>
       <c r="G116" s="15" t="s">
@@ -4828,7 +4798,7 @@
         <v>37</v>
       </c>
       <c r="K116" s="3" t="str">
-        <f>TEXT(F116,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Thu</v>
       </c>
       <c r="L116" s="3"/>
@@ -4847,8 +4817,8 @@
         <v>30</v>
       </c>
       <c r="E117" s="3"/>
-      <c r="F117" s="50">
-        <f>$F$13+J117</f>
+      <c r="F117" s="44">
+        <f t="shared" si="4"/>
         <v>45711</v>
       </c>
       <c r="G117" s="28" t="s">
@@ -4860,7 +4830,7 @@
         <v>33</v>
       </c>
       <c r="K117" s="3" t="str">
-        <f>TEXT(F117,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Sun</v>
       </c>
       <c r="L117" s="3"/>
@@ -4879,20 +4849,20 @@
         <v>40</v>
       </c>
       <c r="E118" s="3"/>
-      <c r="F118" s="46">
-        <f>$F$13+J118</f>
+      <c r="F118" s="40">
+        <f t="shared" si="4"/>
         <v>45713</v>
       </c>
       <c r="G118" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="H118" s="38"/>
+      <c r="H118" s="36"/>
       <c r="I118" s="10"/>
       <c r="J118" s="3">
         <v>35</v>
       </c>
       <c r="K118" s="3" t="str">
-        <f>TEXT(F118,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Tue</v>
       </c>
       <c r="L118" s="3"/>
@@ -4911,8 +4881,8 @@
         <v>30</v>
       </c>
       <c r="E119" s="3"/>
-      <c r="F119" s="50">
-        <f>$F$13+J119</f>
+      <c r="F119" s="44">
+        <f t="shared" si="4"/>
         <v>45714</v>
       </c>
       <c r="G119" s="28" t="s">
@@ -4924,7 +4894,7 @@
         <v>36</v>
       </c>
       <c r="K119" s="3" t="str">
-        <f>TEXT(F119,"ddd")</f>
+        <f t="shared" si="5"/>
         <v>Wed</v>
       </c>
       <c r="L119" s="3"/>
@@ -4941,9 +4911,9 @@
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="43"/>
+      <c r="F120" s="9"/>
       <c r="G120" s="26"/>
-      <c r="H120" s="36"/>
+      <c r="H120" s="34"/>
       <c r="I120" s="10"/>
       <c r="J120" s="3">
         <v>-44228</v>
@@ -4963,9 +4933,9 @@
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="43"/>
+      <c r="F121" s="9"/>
       <c r="G121" s="26"/>
-      <c r="H121" s="36"/>
+      <c r="H121" s="34"/>
       <c r="I121" s="10"/>
       <c r="J121" s="3">
         <v>-44228</v>
@@ -4987,9 +4957,9 @@
         <v>14</v>
       </c>
       <c r="E122" s="2"/>
-      <c r="F122" s="43"/>
+      <c r="F122" s="9"/>
       <c r="G122" s="26"/>
-      <c r="H122" s="36"/>
+      <c r="H122" s="34"/>
       <c r="I122" s="10"/>
       <c r="J122" s="3">
         <v>-44228</v>
@@ -5011,9 +4981,9 @@
         <v>13</v>
       </c>
       <c r="E123" s="2"/>
-      <c r="F123" s="43"/>
+      <c r="F123" s="9"/>
       <c r="G123" s="26"/>
-      <c r="H123" s="36"/>
+      <c r="H123" s="34"/>
       <c r="I123" s="10"/>
       <c r="J123" s="3">
         <v>-44228</v>
@@ -5035,7 +5005,7 @@
         <v>13</v>
       </c>
       <c r="E124" s="6"/>
-      <c r="F124" s="45">
+      <c r="F124" s="16">
         <f>$F$13+J124</f>
         <v>45720</v>
       </c>
@@ -5067,7 +5037,7 @@
         <v>14</v>
       </c>
       <c r="E125" s="3"/>
-      <c r="F125" s="45">
+      <c r="F125" s="16">
         <f>$F$13+J125</f>
         <v>45720</v>
       </c>
@@ -5099,7 +5069,7 @@
         <v>13</v>
       </c>
       <c r="E126" s="6"/>
-      <c r="F126" s="45">
+      <c r="F126" s="16">
         <f>$F$13+J126</f>
         <v>45722</v>
       </c>
@@ -5131,7 +5101,7 @@
         <v>40</v>
       </c>
       <c r="E127" s="6"/>
-      <c r="F127" s="45">
+      <c r="F127" s="16">
         <f>$F$13+J127</f>
         <v>45723</v>
       </c>
@@ -5165,7 +5135,7 @@
         <v>13</v>
       </c>
       <c r="E128" s="2"/>
-      <c r="F128" s="42"/>
+      <c r="F128" s="2"/>
       <c r="G128" s="15"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -5189,7 +5159,7 @@
         <v>13</v>
       </c>
       <c r="E129" s="6"/>
-      <c r="F129" s="45">
+      <c r="F129" s="16">
         <f>$F$13+J129</f>
         <v>45727</v>
       </c>
@@ -5223,7 +5193,7 @@
         <v>14</v>
       </c>
       <c r="E130" s="3"/>
-      <c r="F130" s="45">
+      <c r="F130" s="16">
         <f>$F$13+J130</f>
         <v>45727</v>
       </c>
@@ -5257,7 +5227,7 @@
         <v>13</v>
       </c>
       <c r="E131" s="6"/>
-      <c r="F131" s="45">
+      <c r="F131" s="16">
         <f>$F$13+J131</f>
         <v>45729</v>
       </c>
@@ -5291,7 +5261,7 @@
         <v>4</v>
       </c>
       <c r="E132" s="6"/>
-      <c r="F132" s="45"/>
+      <c r="F132" s="16"/>
       <c r="G132" s="15"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -5317,9 +5287,9 @@
       <c r="E133" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F133" s="48"/>
+      <c r="F133" s="42"/>
       <c r="G133" s="25"/>
-      <c r="H133" s="35"/>
+      <c r="H133" s="33"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3">
         <v>-44228</v>
@@ -5343,7 +5313,7 @@
       <c r="E134" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F134" s="48"/>
+      <c r="F134" s="42"/>
       <c r="G134" s="15"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -5369,7 +5339,7 @@
       <c r="E135" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F135" s="48"/>
+      <c r="F135" s="42"/>
       <c r="G135" s="15"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -5395,7 +5365,7 @@
       <c r="E136" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F136" s="48"/>
+      <c r="F136" s="42"/>
       <c r="G136" s="15"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -5421,7 +5391,7 @@
       <c r="E137" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F137" s="48"/>
+      <c r="F137" s="42"/>
       <c r="G137" s="15"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -5447,7 +5417,7 @@
       <c r="E138" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F138" s="48"/>
+      <c r="F138" s="42"/>
       <c r="G138" s="15"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -5471,7 +5441,7 @@
         <v>4</v>
       </c>
       <c r="E139" s="6"/>
-      <c r="F139" s="48"/>
+      <c r="F139" s="42"/>
       <c r="G139" s="15"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -5497,9 +5467,9 @@
       <c r="E140" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="F140" s="52"/>
+      <c r="F140" s="7"/>
       <c r="G140" s="15"/>
-      <c r="H140" s="37" t="s">
+      <c r="H140" s="35" t="s">
         <v>153</v>
       </c>
       <c r="I140" s="13" t="s">
@@ -5527,7 +5497,7 @@
       <c r="E141" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F141" s="42"/>
+      <c r="F141" s="2"/>
       <c r="G141" s="15"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -5551,7 +5521,7 @@
         <v>11</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="F142" s="42"/>
+      <c r="F142" s="2"/>
       <c r="G142" s="15"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -5575,7 +5545,7 @@
         <v>13</v>
       </c>
       <c r="E143" s="2"/>
-      <c r="F143" s="42"/>
+      <c r="F143" s="2"/>
       <c r="G143" s="15"/>
       <c r="H143" s="3"/>
       <c r="I143" s="10"/>
@@ -5599,7 +5569,7 @@
         <v>14</v>
       </c>
       <c r="E144" s="2"/>
-      <c r="F144" s="42"/>
+      <c r="F144" s="2"/>
       <c r="G144" s="15"/>
       <c r="H144" s="3"/>
       <c r="I144" s="10"/>
@@ -5621,7 +5591,7 @@
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="51"/>
+      <c r="F145" s="3"/>
       <c r="G145" s="15"/>
       <c r="H145" s="3"/>
       <c r="I145" s="10"/>
@@ -5645,8 +5615,8 @@
         <v>14</v>
       </c>
       <c r="E146" s="6"/>
-      <c r="F146" s="45">
-        <f>$F$13+J146</f>
+      <c r="F146" s="16">
+        <f t="shared" ref="F146:F152" si="6">$F$13+J146</f>
         <v>45734</v>
       </c>
       <c r="G146" s="15" t="s">
@@ -5658,7 +5628,7 @@
         <v>56</v>
       </c>
       <c r="K146" s="3" t="str">
-        <f>TEXT(F146,"ddd")</f>
+        <f t="shared" ref="K146:K152" si="7">TEXT(F146,"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="L146" s="3"/>
@@ -5677,8 +5647,8 @@
         <v>13</v>
       </c>
       <c r="E147" s="6"/>
-      <c r="F147" s="45">
-        <f>$F$13+J147</f>
+      <c r="F147" s="16">
+        <f t="shared" si="6"/>
         <v>45734</v>
       </c>
       <c r="G147" s="15" t="s">
@@ -5690,7 +5660,7 @@
         <v>56</v>
       </c>
       <c r="K147" s="3" t="str">
-        <f>TEXT(F147,"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Tue</v>
       </c>
       <c r="L147" s="3"/>
@@ -5709,8 +5679,8 @@
         <v>14</v>
       </c>
       <c r="E148" s="6"/>
-      <c r="F148" s="45">
-        <f>$F$13+J148</f>
+      <c r="F148" s="16">
+        <f t="shared" si="6"/>
         <v>45736</v>
       </c>
       <c r="G148" s="15" t="s">
@@ -5722,7 +5692,7 @@
         <v>58</v>
       </c>
       <c r="K148" s="3" t="str">
-        <f>TEXT(F148,"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Thu</v>
       </c>
       <c r="L148" s="3"/>
@@ -5741,20 +5711,20 @@
         <v>14</v>
       </c>
       <c r="E149" s="2"/>
-      <c r="F149" s="47">
-        <f>$F$13+J149</f>
+      <c r="F149" s="41">
+        <f t="shared" si="6"/>
         <v>45736</v>
       </c>
       <c r="G149" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="H149" s="40"/>
+      <c r="H149" s="38"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3">
         <v>58</v>
       </c>
       <c r="K149" s="3" t="str">
-        <f>TEXT(F149,"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Thu</v>
       </c>
       <c r="L149" s="3"/>
@@ -5773,8 +5743,8 @@
         <v>13</v>
       </c>
       <c r="E150" s="6"/>
-      <c r="F150" s="45">
-        <f>$F$13+J150</f>
+      <c r="F150" s="16">
+        <f t="shared" si="6"/>
         <v>45736</v>
       </c>
       <c r="G150" s="15" t="s">
@@ -5786,7 +5756,7 @@
         <v>58</v>
       </c>
       <c r="K150" s="3" t="str">
-        <f>TEXT(F150,"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Thu</v>
       </c>
       <c r="L150" s="3"/>
@@ -5805,8 +5775,8 @@
         <v>30</v>
       </c>
       <c r="E151" s="3"/>
-      <c r="F151" s="50">
-        <f>$F$13+J151</f>
+      <c r="F151" s="44">
+        <f t="shared" si="6"/>
         <v>45737</v>
       </c>
       <c r="G151" s="28" t="s">
@@ -5818,7 +5788,7 @@
         <v>59</v>
       </c>
       <c r="K151" s="3" t="str">
-        <f>TEXT(F151,"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Fri</v>
       </c>
       <c r="L151" s="3"/>
@@ -5837,20 +5807,20 @@
         <v>40</v>
       </c>
       <c r="E152" s="3"/>
-      <c r="F152" s="46">
-        <f>$F$13+J152</f>
+      <c r="F152" s="40">
+        <f t="shared" si="6"/>
         <v>45738</v>
       </c>
       <c r="G152" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="H152" s="38"/>
+      <c r="H152" s="36"/>
       <c r="I152" s="10"/>
       <c r="J152" s="3">
         <v>60</v>
       </c>
       <c r="K152" s="3" t="str">
-        <f>TEXT(F152,"ddd")</f>
+        <f t="shared" si="7"/>
         <v>Sat</v>
       </c>
       <c r="L152" s="3"/>
@@ -5867,7 +5837,7 @@
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="6"/>
-      <c r="F153" s="45"/>
+      <c r="F153" s="16"/>
       <c r="G153" s="15"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
@@ -5891,7 +5861,7 @@
         <v>14</v>
       </c>
       <c r="E154" s="6"/>
-      <c r="F154" s="45"/>
+      <c r="F154" s="16"/>
       <c r="G154" s="15"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -5915,7 +5885,7 @@
         <v>13</v>
       </c>
       <c r="E155" s="6"/>
-      <c r="F155" s="45"/>
+      <c r="F155" s="16"/>
       <c r="G155" s="15"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
@@ -5939,20 +5909,20 @@
         <v>40</v>
       </c>
       <c r="E156" s="3"/>
-      <c r="F156" s="46">
-        <f>$F$13+J156</f>
+      <c r="F156" s="40">
+        <f t="shared" ref="F156:F162" si="8">$F$13+J156</f>
         <v>45740</v>
       </c>
       <c r="G156" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="H156" s="38"/>
+      <c r="H156" s="36"/>
       <c r="I156" s="10"/>
       <c r="J156" s="3">
         <v>62</v>
       </c>
       <c r="K156" s="3" t="str">
-        <f>TEXT(F156,"ddd")</f>
+        <f t="shared" ref="K156:K162" si="9">TEXT(F156,"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="L156" s="3"/>
@@ -5971,20 +5941,20 @@
         <v>14</v>
       </c>
       <c r="E157" s="6"/>
-      <c r="F157" s="45">
-        <f>$F$13+J157</f>
+      <c r="F157" s="16">
+        <f t="shared" si="8"/>
         <v>45741</v>
       </c>
       <c r="G157" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H157" s="37"/>
+      <c r="H157" s="35"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3">
         <v>63</v>
       </c>
       <c r="K157" s="3" t="str">
-        <f>TEXT(F157,"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Tue</v>
       </c>
       <c r="L157" s="3"/>
@@ -6003,8 +5973,8 @@
         <v>13</v>
       </c>
       <c r="E158" s="6"/>
-      <c r="F158" s="45">
-        <f>$F$13+J158</f>
+      <c r="F158" s="16">
+        <f t="shared" si="8"/>
         <v>45741</v>
       </c>
       <c r="G158" s="15" t="s">
@@ -6016,7 +5986,7 @@
         <v>63</v>
       </c>
       <c r="K158" s="3" t="str">
-        <f>TEXT(F158,"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Tue</v>
       </c>
       <c r="L158" s="3"/>
@@ -6035,8 +6005,8 @@
         <v>30</v>
       </c>
       <c r="E159" s="3"/>
-      <c r="F159" s="50">
-        <f>$F$13+J159</f>
+      <c r="F159" s="44">
+        <f t="shared" si="8"/>
         <v>45739</v>
       </c>
       <c r="G159" s="28" t="s">
@@ -6048,7 +6018,7 @@
         <v>61</v>
       </c>
       <c r="K159" s="3" t="str">
-        <f>TEXT(F159,"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="L159" s="3"/>
@@ -6067,8 +6037,8 @@
         <v>13</v>
       </c>
       <c r="E160" s="6"/>
-      <c r="F160" s="45">
-        <f>$F$13+J160</f>
+      <c r="F160" s="16">
+        <f t="shared" si="8"/>
         <v>45743</v>
       </c>
       <c r="G160" s="15" t="s">
@@ -6080,7 +6050,7 @@
         <v>65</v>
       </c>
       <c r="K160" s="3" t="str">
-        <f>TEXT(F160,"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Thu</v>
       </c>
       <c r="L160" s="3"/>
@@ -6099,8 +6069,8 @@
         <v>30</v>
       </c>
       <c r="E161" s="3"/>
-      <c r="F161" s="50">
-        <f>$F$13+J161</f>
+      <c r="F161" s="44">
+        <f t="shared" si="8"/>
         <v>45746</v>
       </c>
       <c r="G161" s="28" t="s">
@@ -6112,7 +6082,7 @@
         <v>68</v>
       </c>
       <c r="K161" s="3" t="str">
-        <f>TEXT(F161,"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Sun</v>
       </c>
       <c r="L161" s="3"/>
@@ -6131,20 +6101,20 @@
         <v>40</v>
       </c>
       <c r="E162" s="3"/>
-      <c r="F162" s="46">
-        <f>$F$13+J162</f>
+      <c r="F162" s="40">
+        <f t="shared" si="8"/>
         <v>45747</v>
       </c>
       <c r="G162" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="H162" s="38"/>
+      <c r="H162" s="36"/>
       <c r="I162" s="10"/>
       <c r="J162" s="3">
         <v>69</v>
       </c>
       <c r="K162" s="3" t="str">
-        <f>TEXT(F162,"ddd")</f>
+        <f t="shared" si="9"/>
         <v>Mon</v>
       </c>
       <c r="L162" s="3"/>
@@ -6161,7 +6131,7 @@
       </c>
       <c r="D163" s="13"/>
       <c r="E163" s="6"/>
-      <c r="F163" s="45"/>
+      <c r="F163" s="16"/>
       <c r="G163" s="15"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -6185,7 +6155,7 @@
         <v>14</v>
       </c>
       <c r="E164" s="6"/>
-      <c r="F164" s="45"/>
+      <c r="F164" s="16"/>
       <c r="G164" s="15"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -6209,7 +6179,7 @@
         <v>13</v>
       </c>
       <c r="E165" s="6"/>
-      <c r="F165" s="45"/>
+      <c r="F165" s="16"/>
       <c r="G165" s="15"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
@@ -6233,7 +6203,7 @@
         <v>13</v>
       </c>
       <c r="E166" s="6"/>
-      <c r="F166" s="45">
+      <c r="F166" s="16">
         <f>$F$13+J166</f>
         <v>45748</v>
       </c>
@@ -6265,7 +6235,7 @@
         <v>14</v>
       </c>
       <c r="E167" s="6"/>
-      <c r="F167" s="45">
+      <c r="F167" s="16">
         <f>$F$13+J167</f>
         <v>45750</v>
       </c>
@@ -6297,7 +6267,7 @@
         <v>13</v>
       </c>
       <c r="E168" s="6"/>
-      <c r="F168" s="45">
+      <c r="F168" s="16">
         <f>$F$13+J168</f>
         <v>45750</v>
       </c>
@@ -6329,7 +6299,7 @@
         <v>30</v>
       </c>
       <c r="E169" s="3"/>
-      <c r="F169" s="50">
+      <c r="F169" s="44">
         <f>$F$13+J169</f>
         <v>45749</v>
       </c>
@@ -6361,7 +6331,7 @@
         <v>13</v>
       </c>
       <c r="E170" s="6"/>
-      <c r="F170" s="45"/>
+      <c r="F170" s="16"/>
       <c r="G170" s="15"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
@@ -6385,7 +6355,7 @@
         <v>14</v>
       </c>
       <c r="E171" s="6"/>
-      <c r="F171" s="45"/>
+      <c r="F171" s="16"/>
       <c r="G171" s="15"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
@@ -6407,14 +6377,14 @@
         <v>14</v>
       </c>
       <c r="E172" s="6"/>
-      <c r="F172" s="48">
+      <c r="F172" s="42">
         <f>$F$13+J172</f>
         <v>45755</v>
       </c>
       <c r="G172" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H172" s="41"/>
+      <c r="H172" s="39"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3">
         <v>77</v>
@@ -6439,7 +6409,7 @@
         <v>13</v>
       </c>
       <c r="E173" s="6"/>
-      <c r="F173" s="45">
+      <c r="F173" s="16">
         <f>$F$13+J173</f>
         <v>45755</v>
       </c>
@@ -6471,7 +6441,7 @@
         <v>14</v>
       </c>
       <c r="E174" s="6"/>
-      <c r="F174" s="45">
+      <c r="F174" s="16">
         <f>$F$13+J174</f>
         <v>45757</v>
       </c>
@@ -6503,7 +6473,7 @@
         <v>13</v>
       </c>
       <c r="E175" s="6"/>
-      <c r="F175" s="45">
+      <c r="F175" s="16">
         <f>$F$13+J175</f>
         <v>45757</v>
       </c>
@@ -6533,7 +6503,7 @@
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="6"/>
-      <c r="F176" s="45"/>
+      <c r="F176" s="16"/>
       <c r="G176" s="15"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -6557,7 +6527,7 @@
         <v>30</v>
       </c>
       <c r="E177" s="6"/>
-      <c r="F177" s="50">
+      <c r="F177" s="44">
         <f>$F$13+J177</f>
         <v>45758</v>
       </c>
@@ -6589,7 +6559,7 @@
         <v>14</v>
       </c>
       <c r="E178" s="6"/>
-      <c r="F178" s="45">
+      <c r="F178" s="16">
         <f>$F$13+J178</f>
         <v>45758</v>
       </c>
@@ -6623,7 +6593,7 @@
         <v>14</v>
       </c>
       <c r="E179" s="6"/>
-      <c r="F179" s="45"/>
+      <c r="F179" s="16"/>
       <c r="G179" s="15"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
@@ -6647,7 +6617,7 @@
         <v>13</v>
       </c>
       <c r="E180" s="6"/>
-      <c r="F180" s="45"/>
+      <c r="F180" s="16"/>
       <c r="G180" s="15"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
@@ -6671,20 +6641,20 @@
         <v>40</v>
       </c>
       <c r="E181" s="3"/>
-      <c r="F181" s="46">
-        <f>$F$13+J181</f>
+      <c r="F181" s="40">
+        <f t="shared" ref="F181:F186" si="10">$F$13+J181</f>
         <v>45762</v>
       </c>
       <c r="G181" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="H181" s="38"/>
+      <c r="H181" s="36"/>
       <c r="I181" s="10"/>
       <c r="J181" s="3">
         <v>84</v>
       </c>
       <c r="K181" s="3" t="str">
-        <f>TEXT(F181,"ddd")</f>
+        <f t="shared" ref="K181:K186" si="11">TEXT(F181,"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="L181" s="3"/>
@@ -6703,8 +6673,8 @@
         <v>14</v>
       </c>
       <c r="E182" s="6"/>
-      <c r="F182" s="45">
-        <f>$F$13+J182</f>
+      <c r="F182" s="16">
+        <f t="shared" si="10"/>
         <v>45762</v>
       </c>
       <c r="G182" s="15" t="s">
@@ -6716,7 +6686,7 @@
         <v>84</v>
       </c>
       <c r="K182" s="3" t="str">
-        <f>TEXT(F182,"ddd")</f>
+        <f t="shared" si="11"/>
         <v>Tue</v>
       </c>
       <c r="L182" s="3"/>
@@ -6735,8 +6705,8 @@
         <v>13</v>
       </c>
       <c r="E183" s="6"/>
-      <c r="F183" s="45">
-        <f>$F$13+J183</f>
+      <c r="F183" s="16">
+        <f t="shared" si="10"/>
         <v>45762</v>
       </c>
       <c r="G183" s="15" t="s">
@@ -6748,7 +6718,7 @@
         <v>84</v>
       </c>
       <c r="K183" s="3" t="str">
-        <f>TEXT(F183,"ddd")</f>
+        <f t="shared" si="11"/>
         <v>Tue</v>
       </c>
       <c r="L183" s="3"/>
@@ -6767,8 +6737,8 @@
         <v>14</v>
       </c>
       <c r="E184" s="6"/>
-      <c r="F184" s="45">
-        <f>$F$13+J184</f>
+      <c r="F184" s="16">
+        <f t="shared" si="10"/>
         <v>45764</v>
       </c>
       <c r="G184" s="15" t="s">
@@ -6780,7 +6750,7 @@
         <v>86</v>
       </c>
       <c r="K184" s="3" t="str">
-        <f>TEXT(F184,"ddd")</f>
+        <f t="shared" si="11"/>
         <v>Thu</v>
       </c>
       <c r="L184" s="3"/>
@@ -6799,8 +6769,8 @@
         <v>13</v>
       </c>
       <c r="E185" s="6"/>
-      <c r="F185" s="45">
-        <f>$F$13+J185</f>
+      <c r="F185" s="16">
+        <f t="shared" si="10"/>
         <v>45764</v>
       </c>
       <c r="G185" s="15" t="s">
@@ -6812,7 +6782,7 @@
         <v>86</v>
       </c>
       <c r="K185" s="3" t="str">
-        <f>TEXT(F185,"ddd")</f>
+        <f t="shared" si="11"/>
         <v>Thu</v>
       </c>
       <c r="L185" s="3"/>
@@ -6831,8 +6801,8 @@
         <v>30</v>
       </c>
       <c r="E186" s="6"/>
-      <c r="F186" s="50">
-        <f>$F$13+J186</f>
+      <c r="F186" s="44">
+        <f t="shared" si="10"/>
         <v>45765</v>
       </c>
       <c r="G186" s="28" t="s">
@@ -6844,7 +6814,7 @@
         <v>87</v>
       </c>
       <c r="K186" s="3" t="str">
-        <f>TEXT(F186,"ddd")</f>
+        <f t="shared" si="11"/>
         <v>Fri</v>
       </c>
       <c r="L186" s="3"/>
@@ -6863,7 +6833,7 @@
         <v>14</v>
       </c>
       <c r="E187" s="6"/>
-      <c r="F187" s="45"/>
+      <c r="F187" s="16"/>
       <c r="G187" s="15"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
@@ -6887,7 +6857,7 @@
         <v>13</v>
       </c>
       <c r="E188" s="6"/>
-      <c r="F188" s="45"/>
+      <c r="F188" s="16"/>
       <c r="G188" s="15"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
@@ -6911,7 +6881,7 @@
         <v>30</v>
       </c>
       <c r="E189" s="6"/>
-      <c r="F189" s="50">
+      <c r="F189" s="44">
         <f>$F$13+J189</f>
         <v>45767</v>
       </c>
@@ -6943,14 +6913,14 @@
         <v>40</v>
       </c>
       <c r="E190" s="6"/>
-      <c r="F190" s="46">
+      <c r="F190" s="40">
         <f>$F$13+J190</f>
         <v>45768</v>
       </c>
       <c r="G190" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="H190" s="38"/>
+      <c r="H190" s="36"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3">
         <v>90</v>
@@ -6975,14 +6945,14 @@
         <v>40</v>
       </c>
       <c r="E191" s="6"/>
-      <c r="F191" s="46">
+      <c r="F191" s="40">
         <f>$F$13+J191</f>
         <v>45768</v>
       </c>
       <c r="G191" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="H191" s="38"/>
+      <c r="H191" s="36"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3">
         <v>90</v>
@@ -7007,7 +6977,7 @@
         <v>13</v>
       </c>
       <c r="E192" s="6"/>
-      <c r="F192" s="45">
+      <c r="F192" s="16">
         <f>$F$13+J192</f>
         <v>45769</v>
       </c>
@@ -7037,7 +7007,7 @@
       </c>
       <c r="D193" s="13"/>
       <c r="E193" s="6"/>
-      <c r="F193" s="45"/>
+      <c r="F193" s="16"/>
       <c r="G193" s="15"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
@@ -7061,7 +7031,7 @@
         <v>30</v>
       </c>
       <c r="E194" s="6"/>
-      <c r="F194" s="50">
+      <c r="F194" s="44">
         <f>$F$13+J194</f>
         <v>45770</v>
       </c>
@@ -7093,7 +7063,7 @@
         <v>13</v>
       </c>
       <c r="E195" s="6"/>
-      <c r="F195" s="45">
+      <c r="F195" s="16">
         <f>$F$13+J195</f>
         <v>45771</v>
       </c>
@@ -7125,7 +7095,7 @@
         <v>13</v>
       </c>
       <c r="E196" s="6"/>
-      <c r="F196" s="45"/>
+      <c r="F196" s="16"/>
       <c r="G196" s="15"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
@@ -7149,7 +7119,7 @@
         <v>14</v>
       </c>
       <c r="E197" s="6"/>
-      <c r="F197" s="45"/>
+      <c r="F197" s="16"/>
       <c r="G197" s="15"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
@@ -7173,8 +7143,8 @@
         <v>13</v>
       </c>
       <c r="E198" s="6"/>
-      <c r="F198" s="45">
-        <f>$F$13+J198</f>
+      <c r="F198" s="16">
+        <f t="shared" ref="F198:F204" si="12">$F$13+J198</f>
         <v>45776</v>
       </c>
       <c r="G198" s="15" t="s">
@@ -7186,7 +7156,7 @@
         <v>98</v>
       </c>
       <c r="K198" s="3" t="str">
-        <f>TEXT(F198,"ddd")</f>
+        <f t="shared" ref="K198:K204" si="13">TEXT(F198,"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="L198" s="3"/>
@@ -7205,8 +7175,8 @@
         <v>30</v>
       </c>
       <c r="E199" s="3"/>
-      <c r="F199" s="50">
-        <f>$F$13+J199</f>
+      <c r="F199" s="44">
+        <f t="shared" si="12"/>
         <v>45774</v>
       </c>
       <c r="G199" s="28" t="s">
@@ -7218,7 +7188,7 @@
         <v>96</v>
       </c>
       <c r="K199" s="3" t="str">
-        <f>TEXT(F199,"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Sun</v>
       </c>
       <c r="L199" s="3"/>
@@ -7237,8 +7207,8 @@
         <v>13</v>
       </c>
       <c r="E200" s="6"/>
-      <c r="F200" s="45">
-        <f>$F$13+J200</f>
+      <c r="F200" s="16">
+        <f t="shared" si="12"/>
         <v>45778</v>
       </c>
       <c r="G200" s="15" t="s">
@@ -7250,7 +7220,7 @@
         <v>100</v>
       </c>
       <c r="K200" s="3" t="str">
-        <f>TEXT(F200,"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Thu</v>
       </c>
       <c r="L200" s="3"/>
@@ -7269,8 +7239,8 @@
         <v>30</v>
       </c>
       <c r="E201" s="2"/>
-      <c r="F201" s="50">
-        <f>$F$13+J201</f>
+      <c r="F201" s="44">
+        <f t="shared" si="12"/>
         <v>45778</v>
       </c>
       <c r="G201" s="28" t="s">
@@ -7282,7 +7252,7 @@
         <v>100</v>
       </c>
       <c r="K201" s="3" t="str">
-        <f>TEXT(F201,"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Thu</v>
       </c>
       <c r="L201" s="3"/>
@@ -7301,8 +7271,8 @@
         <v>30</v>
       </c>
       <c r="E202" s="3"/>
-      <c r="F202" s="50">
-        <f>$F$13+J202</f>
+      <c r="F202" s="44">
+        <f t="shared" si="12"/>
         <v>45778</v>
       </c>
       <c r="G202" s="28" t="s">
@@ -7314,7 +7284,7 @@
         <v>100</v>
       </c>
       <c r="K202" s="3" t="str">
-        <f>TEXT(F202,"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Thu</v>
       </c>
       <c r="L202" s="3"/>
@@ -7333,8 +7303,8 @@
         <v>30</v>
       </c>
       <c r="E203" s="6"/>
-      <c r="F203" s="50">
-        <f>$F$13+J203</f>
+      <c r="F203" s="44">
+        <f t="shared" si="12"/>
         <v>45779</v>
       </c>
       <c r="G203" s="28" t="s">
@@ -7346,7 +7316,7 @@
         <v>101</v>
       </c>
       <c r="K203" s="3" t="str">
-        <f>TEXT(F203,"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="L203" s="3"/>
@@ -7365,8 +7335,8 @@
         <v>30</v>
       </c>
       <c r="E204" s="6"/>
-      <c r="F204" s="47">
-        <f>$F$13+J204</f>
+      <c r="F204" s="41">
+        <f t="shared" si="12"/>
         <v>45779</v>
       </c>
       <c r="G204" s="28" t="s">
@@ -7378,7 +7348,7 @@
         <v>101</v>
       </c>
       <c r="K204" s="3" t="str">
-        <f>TEXT(F204,"ddd")</f>
+        <f t="shared" si="13"/>
         <v>Fri</v>
       </c>
       <c r="L204" s="3"/>
@@ -7395,7 +7365,7 @@
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
-      <c r="F205" s="53"/>
+      <c r="F205" s="23"/>
       <c r="G205" s="15"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
@@ -7417,7 +7387,7 @@
         <v>40</v>
       </c>
       <c r="E206" s="2"/>
-      <c r="F206" s="53">
+      <c r="F206" s="23">
         <f>$F$13+J206</f>
         <v>45794</v>
       </c>
@@ -7468,7 +7438,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K208" xr:uid="{8EF092B6-1F8C-4FD2-8E57-195959BA7874}"/>
-  <conditionalFormatting sqref="C172:C184 C189:C200 C204 C3:C75">
+  <conditionalFormatting sqref="C3:C75 C172:C184 C189:C200 C204">
     <cfRule type="expression" dxfId="47" priority="1">
       <formula>ISEVEN(C3)</formula>
     </cfRule>
@@ -7485,11 +7455,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="43" priority="149">
+    <cfRule type="expression" dxfId="43" priority="150">
+      <formula>ISODD(C77)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="149">
       <formula>ISEVEN(C77)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="150">
-      <formula>ISODD(C77)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C78:C80 C116:C118 C152 C168:C171 C185:C186">
@@ -7498,27 +7468,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="expression" dxfId="40" priority="153">
+    <cfRule type="expression" dxfId="40" priority="154">
+      <formula>ISODD(C79)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="153">
       <formula>ISEVEN(C79)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="154">
-      <formula>ISODD(C79)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="38" priority="147">
+    <cfRule type="expression" dxfId="38" priority="148">
+      <formula>ISODD(C80)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="147">
       <formula>ISEVEN(C80)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="148">
-      <formula>ISODD(C80)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83:C115">
-    <cfRule type="expression" dxfId="36" priority="119">
+    <cfRule type="expression" dxfId="36" priority="120">
+      <formula>ISODD(C83)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="119">
       <formula>ISEVEN(C83)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="120">
-      <formula>ISODD(C83)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C118 C78:C80 C152 C185:C186 C168:C171">
@@ -7535,19 +7505,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="expression" dxfId="31" priority="173">
+    <cfRule type="expression" dxfId="31" priority="174">
+      <formula>ISODD(C118)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="173">
       <formula>ISEVEN(C118)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="174">
-      <formula>ISODD(C118)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147:C156">
-    <cfRule type="expression" dxfId="29" priority="63">
+    <cfRule type="expression" dxfId="29" priority="64">
+      <formula>ISODD(C147)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="63">
       <formula>ISEVEN(C147)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="64">
-      <formula>ISODD(C147)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
@@ -7559,52 +7529,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="expression" dxfId="25" priority="55">
+    <cfRule type="expression" dxfId="25" priority="57">
       <formula>ISEVEN(C156)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="56">
+    <cfRule type="expression" dxfId="24" priority="58">
       <formula>ISODD(C156)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="57">
+    <cfRule type="expression" dxfId="23" priority="55">
       <formula>ISEVEN(C156)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="58">
+    <cfRule type="expression" dxfId="22" priority="56">
       <formula>ISODD(C156)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156:C157">
-    <cfRule type="expression" dxfId="21" priority="45">
+    <cfRule type="expression" dxfId="21" priority="46">
+      <formula>ISODD(C156)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="45">
       <formula>ISEVEN(C156)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="46">
-      <formula>ISODD(C156)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158:C166">
-    <cfRule type="expression" dxfId="19" priority="77">
+    <cfRule type="expression" dxfId="19" priority="78">
+      <formula>ISODD(C158)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="77">
       <formula>ISEVEN(C158)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="78">
-      <formula>ISODD(C158)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="expression" dxfId="17" priority="65">
+    <cfRule type="expression" dxfId="17" priority="69">
       <formula>ISEVEN(C159)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="66">
+    <cfRule type="expression" dxfId="16" priority="70">
       <formula>ISODD(C159)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="67">
+    <cfRule type="expression" dxfId="15" priority="66">
+      <formula>ISODD(C159)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="65">
       <formula>ISEVEN(C159)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="68">
-      <formula>ISODD(C159)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="69">
+    <cfRule type="expression" dxfId="13" priority="67">
       <formula>ISEVEN(C159)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="70">
+    <cfRule type="expression" dxfId="12" priority="68">
       <formula>ISODD(C159)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7617,27 +7587,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167">
-    <cfRule type="expression" dxfId="9" priority="13">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>ISODD(C167)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>ISEVEN(C167)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>ISODD(C167)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C169">
-    <cfRule type="expression" dxfId="7" priority="59">
+    <cfRule type="expression" dxfId="7" priority="60">
+      <formula>ISODD(C169)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="59">
       <formula>ISEVEN(C169)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="60">
-      <formula>ISODD(C169)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C186">
-    <cfRule type="expression" dxfId="5" priority="43">
+    <cfRule type="expression" dxfId="5" priority="44">
+      <formula>ISODD(C186)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="43">
       <formula>ISEVEN(C186)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="44">
-      <formula>ISODD(C186)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C186:C188">
